--- a/SP500_excel_file.xlsx
+++ b/SP500_excel_file.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3521469</v>
+        <v>3518422</v>
       </c>
       <c r="F2" t="n">
-        <v>3526526</v>
+        <v>3546828</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1045112</v>
+        <v>1042248</v>
       </c>
       <c r="F3" t="n">
-        <v>1046008</v>
+        <v>1042573</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5071516</v>
+        <v>5067522</v>
       </c>
       <c r="F4" t="n">
-        <v>5130276</v>
+        <v>5123178</v>
       </c>
     </row>
     <row r="5">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5444507</v>
+        <v>5454079</v>
       </c>
       <c r="F5" t="n">
-        <v>5451636</v>
+        <v>5483300</v>
       </c>
     </row>
     <row r="6">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2207687</v>
+        <v>2211961</v>
       </c>
       <c r="F6" t="n">
-        <v>2229378</v>
+        <v>2230892</v>
       </c>
     </row>
     <row r="7">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3040108</v>
+        <v>3061162</v>
       </c>
       <c r="F7" t="n">
-        <v>3051764</v>
+        <v>3083061</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60609897</v>
+        <v>61312423</v>
       </c>
       <c r="F8" t="n">
-        <v>60590189</v>
+        <v>61469634</v>
       </c>
     </row>
     <row r="9">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5908709</v>
+        <v>5873062</v>
       </c>
       <c r="F9" t="n">
-        <v>5925824</v>
+        <v>5948462</v>
       </c>
     </row>
     <row r="10">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2415577</v>
+        <v>2413284</v>
       </c>
       <c r="F10" t="n">
-        <v>2426331</v>
+        <v>2430807</v>
       </c>
     </row>
     <row r="11">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1781498</v>
+        <v>1779797</v>
       </c>
       <c r="F11" t="n">
-        <v>1799429</v>
+        <v>1810936</v>
       </c>
     </row>
     <row r="12">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>995573</v>
+        <v>983947</v>
       </c>
       <c r="F12" t="n">
-        <v>963258</v>
+        <v>961765</v>
       </c>
     </row>
     <row r="13">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6160775</v>
+        <v>6169618</v>
       </c>
       <c r="F13" t="n">
-        <v>6143818</v>
+        <v>6173660</v>
       </c>
     </row>
     <row r="14">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1531415</v>
+        <v>1533795</v>
       </c>
       <c r="F14" t="n">
-        <v>1559091</v>
+        <v>1553127</v>
       </c>
     </row>
     <row r="15">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2290216</v>
+        <v>2200400</v>
       </c>
       <c r="F15" t="n">
-        <v>1909818</v>
+        <v>1960713</v>
       </c>
     </row>
     <row r="16">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2244684</v>
+        <v>2222554</v>
       </c>
       <c r="F16" t="n">
-        <v>2134515</v>
+        <v>2167151</v>
       </c>
     </row>
     <row r="17">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1098204</v>
+        <v>1084428</v>
       </c>
       <c r="F17" t="n">
-        <v>1054453</v>
+        <v>1060052</v>
       </c>
     </row>
     <row r="18">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>920749</v>
+        <v>925875</v>
       </c>
       <c r="F18" t="n">
-        <v>900256</v>
+        <v>912193</v>
       </c>
     </row>
     <row r="19">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>760547</v>
+        <v>755541</v>
       </c>
       <c r="F19" t="n">
-        <v>748335</v>
+        <v>754169</v>
       </c>
     </row>
     <row r="20">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1538552</v>
+        <v>1533538</v>
       </c>
       <c r="F20" t="n">
-        <v>1518512</v>
+        <v>1530648</v>
       </c>
     </row>
     <row r="21">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1732421</v>
+        <v>1747141</v>
       </c>
       <c r="F21" t="n">
-        <v>1764877</v>
+        <v>1781589</v>
       </c>
     </row>
     <row r="22">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32853044</v>
+        <v>32752050</v>
       </c>
       <c r="F22" t="n">
-        <v>32490961</v>
+        <v>32554326</v>
       </c>
     </row>
     <row r="23">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25543143</v>
+        <v>25551761</v>
       </c>
       <c r="F23" t="n">
-        <v>25423723</v>
+        <v>25506856</v>
       </c>
     </row>
     <row r="24">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7974478</v>
+        <v>7968194</v>
       </c>
       <c r="F24" t="n">
-        <v>7895977</v>
+        <v>7941303</v>
       </c>
     </row>
     <row r="25">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60072983</v>
+        <v>60216439</v>
       </c>
       <c r="F25" t="n">
-        <v>60358918</v>
+        <v>60102904</v>
       </c>
     </row>
     <row r="26">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7754771</v>
+        <v>7660813</v>
       </c>
       <c r="F26" t="n">
-        <v>7737824</v>
+        <v>7647702</v>
       </c>
     </row>
     <row r="27">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1435582</v>
+        <v>1438578</v>
       </c>
       <c r="F27" t="n">
-        <v>1415613</v>
+        <v>1431781</v>
       </c>
     </row>
     <row r="28">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28451259</v>
+        <v>28230199</v>
       </c>
       <c r="F28" t="n">
-        <v>27228882</v>
+        <v>27510650</v>
       </c>
     </row>
     <row r="29">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3034420</v>
+        <v>3048596</v>
       </c>
       <c r="F29" t="n">
-        <v>3035219</v>
+        <v>3061340</v>
       </c>
     </row>
     <row r="30">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3149958</v>
+        <v>3125963</v>
       </c>
       <c r="F30" t="n">
-        <v>3092101</v>
+        <v>3108115</v>
       </c>
     </row>
     <row r="31">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4005675</v>
+        <v>4001341</v>
       </c>
       <c r="F31" t="n">
-        <v>4020843</v>
+        <v>4001977</v>
       </c>
     </row>
     <row r="32">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2101944</v>
+        <v>2098080</v>
       </c>
       <c r="F32" t="n">
-        <v>2104578</v>
+        <v>2112165</v>
       </c>
     </row>
     <row r="33">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1024101</v>
+        <v>1025259</v>
       </c>
       <c r="F33" t="n">
-        <v>1037078</v>
+        <v>1042117</v>
       </c>
     </row>
     <row r="34">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>527344</v>
+        <v>527561</v>
       </c>
       <c r="F34" t="n">
-        <v>528986</v>
+        <v>531069</v>
       </c>
     </row>
     <row r="35">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>976599</v>
+        <v>982286</v>
       </c>
       <c r="F35" t="n">
-        <v>969300</v>
+        <v>981341</v>
       </c>
     </row>
     <row r="36">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2453356</v>
+        <v>2460498</v>
       </c>
       <c r="F36" t="n">
-        <v>2460612</v>
+        <v>2473284</v>
       </c>
     </row>
     <row r="37">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2610159</v>
+        <v>2596895</v>
       </c>
       <c r="F37" t="n">
-        <v>2529864</v>
+        <v>2561578</v>
       </c>
     </row>
     <row r="38">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3297394</v>
+        <v>3302664</v>
       </c>
       <c r="F38" t="n">
-        <v>3330773</v>
+        <v>3347724</v>
       </c>
     </row>
     <row r="39">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>494971</v>
+        <v>496186</v>
       </c>
       <c r="F39" t="n">
-        <v>481852</v>
+        <v>489164</v>
       </c>
     </row>
     <row r="40">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>821950</v>
+        <v>814350</v>
       </c>
       <c r="F40" t="n">
-        <v>808060</v>
+        <v>808970</v>
       </c>
     </row>
     <row r="41">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5000462</v>
+        <v>4984885</v>
       </c>
       <c r="F41" t="n">
-        <v>5095130</v>
+        <v>5036536</v>
       </c>
     </row>
     <row r="42">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60939167</v>
+        <v>61157341</v>
       </c>
       <c r="F42" t="n">
-        <v>61268994</v>
+        <v>60992949</v>
       </c>
     </row>
     <row r="43">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5960735</v>
+        <v>5997156</v>
       </c>
       <c r="F43" t="n">
-        <v>5949040</v>
+        <v>5990668</v>
       </c>
     </row>
     <row r="44">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2034176</v>
+        <v>2035979</v>
       </c>
       <c r="F44" t="n">
-        <v>2001362</v>
+        <v>2011702</v>
       </c>
     </row>
     <row r="45">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1926645</v>
+        <v>1920464</v>
       </c>
       <c r="F45" t="n">
-        <v>1929114</v>
+        <v>1928132</v>
       </c>
     </row>
     <row r="46">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2923168</v>
+        <v>2910472</v>
       </c>
       <c r="F46" t="n">
-        <v>2916208</v>
+        <v>2919314</v>
       </c>
     </row>
     <row r="47">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2532363</v>
+        <v>2531139</v>
       </c>
       <c r="F47" t="n">
-        <v>2604773</v>
+        <v>2604535</v>
       </c>
     </row>
     <row r="48">
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>818760</v>
+        <v>816158</v>
       </c>
       <c r="F48" t="n">
-        <v>822623</v>
+        <v>822887</v>
       </c>
     </row>
     <row r="49">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>393588</v>
+        <v>391848</v>
       </c>
       <c r="F49" t="n">
-        <v>398073</v>
+        <v>394216</v>
       </c>
     </row>
     <row r="50">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38979177</v>
+        <v>38986667</v>
       </c>
       <c r="F50" t="n">
-        <v>38228193</v>
+        <v>38500334</v>
       </c>
     </row>
     <row r="51">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>922956</v>
+        <v>905124</v>
       </c>
       <c r="F51" t="n">
-        <v>931057</v>
+        <v>904832</v>
       </c>
     </row>
     <row r="52">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1398160</v>
+        <v>1397502</v>
       </c>
       <c r="F52" t="n">
-        <v>1396996</v>
+        <v>1405087</v>
       </c>
     </row>
     <row r="53">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1759513</v>
+        <v>1758752</v>
       </c>
       <c r="F53" t="n">
-        <v>1755562</v>
+        <v>1756827</v>
       </c>
     </row>
     <row r="54">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>156040</v>
+        <v>154542</v>
       </c>
       <c r="F54" t="n">
-        <v>154316</v>
+        <v>154252</v>
       </c>
     </row>
     <row r="55">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>773468</v>
+        <v>770230</v>
       </c>
       <c r="F55" t="n">
-        <v>756031</v>
+        <v>761081</v>
       </c>
     </row>
     <row r="56">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>508365</v>
+        <v>504511</v>
       </c>
       <c r="F56" t="n">
-        <v>514746</v>
+        <v>508879</v>
       </c>
     </row>
     <row r="57">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>719457</v>
+        <v>717419</v>
       </c>
       <c r="F57" t="n">
-        <v>737533</v>
+        <v>736459</v>
       </c>
     </row>
     <row r="58">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7085363</v>
+        <v>7073543</v>
       </c>
       <c r="F58" t="n">
-        <v>7033434</v>
+        <v>7026446</v>
       </c>
     </row>
     <row r="59">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1864658</v>
+        <v>1843299</v>
       </c>
       <c r="F59" t="n">
-        <v>1847434</v>
+        <v>1843498</v>
       </c>
     </row>
     <row r="60">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>46854219</v>
+        <v>46609472</v>
       </c>
       <c r="F60" t="n">
-        <v>47415640</v>
+        <v>47325476</v>
       </c>
     </row>
     <row r="61">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4921713</v>
+        <v>4896526</v>
       </c>
       <c r="F61" t="n">
-        <v>4973557</v>
+        <v>4953872</v>
       </c>
     </row>
     <row r="62">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3510615</v>
+        <v>3478705</v>
       </c>
       <c r="F62" t="n">
-        <v>3494549</v>
+        <v>3472434</v>
       </c>
     </row>
     <row r="63">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5290503</v>
+        <v>5292812</v>
       </c>
       <c r="F63" t="n">
-        <v>5367798</v>
+        <v>5360450</v>
       </c>
     </row>
     <row r="64">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1256679</v>
+        <v>1248929</v>
       </c>
       <c r="F64" t="n">
-        <v>1214028</v>
+        <v>1227432</v>
       </c>
     </row>
     <row r="65">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3367943</v>
+        <v>3355431</v>
       </c>
       <c r="F65" t="n">
-        <v>3364580</v>
+        <v>3356955</v>
       </c>
     </row>
     <row r="66">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2403156</v>
+        <v>2394328</v>
       </c>
       <c r="F66" t="n">
-        <v>2394364</v>
+        <v>2398908</v>
       </c>
     </row>
     <row r="67">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>205040</v>
+        <v>206292</v>
       </c>
       <c r="F67" t="n">
-        <v>201794</v>
+        <v>205680</v>
       </c>
     </row>
     <row r="68">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1008984</v>
+        <v>1016287</v>
       </c>
       <c r="F68" t="n">
-        <v>993525</v>
+        <v>1011721</v>
       </c>
     </row>
     <row r="69">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1005330</v>
+        <v>1011550</v>
       </c>
       <c r="F69" t="n">
-        <v>1005674</v>
+        <v>1013434</v>
       </c>
     </row>
     <row r="70">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>642999</v>
+        <v>641101</v>
       </c>
       <c r="F70" t="n">
-        <v>636744</v>
+        <v>638713</v>
       </c>
     </row>
     <row r="71">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4868915</v>
+        <v>4841917</v>
       </c>
       <c r="F71" t="n">
-        <v>4870110</v>
+        <v>4842560</v>
       </c>
     </row>
     <row r="72">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5711836</v>
+        <v>5713328</v>
       </c>
       <c r="F72" t="n">
-        <v>5696983</v>
+        <v>5693438</v>
       </c>
     </row>
     <row r="73">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>294348</v>
+        <v>295732</v>
       </c>
       <c r="F73" t="n">
-        <v>297646</v>
+        <v>299022</v>
       </c>
     </row>
     <row r="74">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2427344</v>
+        <v>2407190</v>
       </c>
       <c r="F74" t="n">
-        <v>2387755</v>
+        <v>2401825</v>
       </c>
     </row>
     <row r="75">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1683095</v>
+        <v>1679436</v>
       </c>
       <c r="F75" t="n">
-        <v>1656803</v>
+        <v>1665376</v>
       </c>
     </row>
     <row r="76">
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7707187</v>
+        <v>7653544</v>
       </c>
       <c r="F76" t="n">
-        <v>7843650</v>
+        <v>7769814</v>
       </c>
     </row>
     <row r="77">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10028077</v>
+        <v>10059705</v>
       </c>
       <c r="F77" t="n">
-        <v>9853186</v>
+        <v>9978842</v>
       </c>
     </row>
     <row r="78">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2596704</v>
+        <v>2697738</v>
       </c>
       <c r="F78" t="n">
-        <v>2559444</v>
+        <v>2670808</v>
       </c>
     </row>
     <row r="79">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>550026</v>
+        <v>544607</v>
       </c>
       <c r="F79" t="n">
-        <v>546301</v>
+        <v>542384</v>
       </c>
     </row>
     <row r="80">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1174968</v>
+        <v>1178869</v>
       </c>
       <c r="F80" t="n">
-        <v>1184181</v>
+        <v>1188577</v>
       </c>
     </row>
     <row r="81">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1402261</v>
+        <v>1382040</v>
       </c>
       <c r="F81" t="n">
-        <v>1363771</v>
+        <v>1367107</v>
       </c>
     </row>
     <row r="82">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1289176</v>
+        <v>1287890</v>
       </c>
       <c r="F82" t="n">
-        <v>1316609</v>
+        <v>1321394</v>
       </c>
     </row>
     <row r="83">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1595614</v>
+        <v>1595388</v>
       </c>
       <c r="F83" t="n">
-        <v>1603285</v>
+        <v>1611701</v>
       </c>
     </row>
     <row r="84">
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2998541</v>
+        <v>2992136</v>
       </c>
       <c r="F84" t="n">
-        <v>2889439</v>
+        <v>2916458</v>
       </c>
     </row>
     <row r="85">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>833182</v>
+        <v>829230</v>
       </c>
       <c r="F85" t="n">
-        <v>828400</v>
+        <v>827703</v>
       </c>
     </row>
     <row r="86">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2682561</v>
+        <v>2647960</v>
       </c>
       <c r="F86" t="n">
-        <v>2609187</v>
+        <v>2599565</v>
       </c>
     </row>
     <row r="87">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2925282</v>
+        <v>2929335</v>
       </c>
       <c r="F87" t="n">
-        <v>2869713</v>
+        <v>2892780</v>
       </c>
     </row>
     <row r="88">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2275177</v>
+        <v>2267826</v>
       </c>
       <c r="F88" t="n">
-        <v>2332086</v>
+        <v>2293155</v>
       </c>
     </row>
     <row r="89">
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2205476</v>
+        <v>2227398</v>
       </c>
       <c r="F89" t="n">
-        <v>2160202</v>
+        <v>2166278</v>
       </c>
     </row>
     <row r="90">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36318613</v>
+        <v>36260233</v>
       </c>
       <c r="F90" t="n">
-        <v>36149271</v>
+        <v>35990026</v>
       </c>
     </row>
     <row r="91">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4824618</v>
+        <v>4831879</v>
       </c>
       <c r="F91" t="n">
-        <v>4850974</v>
+        <v>4884038</v>
       </c>
     </row>
     <row r="92">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3000648</v>
+        <v>2994752</v>
       </c>
       <c r="F92" t="n">
-        <v>3043086</v>
+        <v>3023044</v>
       </c>
     </row>
     <row r="93">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3038667</v>
+        <v>3028746</v>
       </c>
       <c r="F93" t="n">
-        <v>3023861</v>
+        <v>3029286</v>
       </c>
     </row>
     <row r="94">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>707963</v>
+        <v>704749</v>
       </c>
       <c r="F94" t="n">
-        <v>691641</v>
+        <v>694380</v>
       </c>
     </row>
     <row r="95">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1654247</v>
+        <v>1649121</v>
       </c>
       <c r="F95" t="n">
-        <v>1653945</v>
+        <v>1659759</v>
       </c>
     </row>
     <row r="96">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>759706</v>
+        <v>768123</v>
       </c>
       <c r="F96" t="n">
-        <v>758558</v>
+        <v>772396</v>
       </c>
     </row>
     <row r="97">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1122661</v>
+        <v>1118242</v>
       </c>
       <c r="F97" t="n">
-        <v>1146636</v>
+        <v>1143533</v>
       </c>
     </row>
     <row r="98">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1404633</v>
+        <v>1386166</v>
       </c>
       <c r="F98" t="n">
-        <v>1444554</v>
+        <v>1405027</v>
       </c>
     </row>
     <row r="99">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3394174</v>
+        <v>3414272</v>
       </c>
       <c r="F99" t="n">
-        <v>3394022</v>
+        <v>3428085</v>
       </c>
     </row>
     <row r="100">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4052692</v>
+        <v>4014235</v>
       </c>
       <c r="F100" t="n">
-        <v>3991010</v>
+        <v>4001837</v>
       </c>
     </row>
     <row r="101">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1318390</v>
+        <v>1261206</v>
       </c>
       <c r="F101" t="n">
-        <v>1299803</v>
+        <v>1264804</v>
       </c>
     </row>
     <row r="102">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2527977</v>
+        <v>2508652</v>
       </c>
       <c r="F102" t="n">
-        <v>2519138</v>
+        <v>2522395</v>
       </c>
     </row>
     <row r="103">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1196571</v>
+        <v>1200812</v>
       </c>
       <c r="F103" t="n">
-        <v>1189679</v>
+        <v>1200051</v>
       </c>
     </row>
     <row r="104">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>523945</v>
+        <v>524291</v>
       </c>
       <c r="F104" t="n">
-        <v>527289</v>
+        <v>527895</v>
       </c>
     </row>
     <row r="105">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>14064886</v>
+        <v>14008562</v>
       </c>
       <c r="F105" t="n">
-        <v>14362053</v>
+        <v>14415864</v>
       </c>
     </row>
     <row r="106">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1217578</v>
+        <v>1218832</v>
       </c>
       <c r="F106" t="n">
-        <v>1181102</v>
+        <v>1188589</v>
       </c>
     </row>
     <row r="107">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8700023</v>
+        <v>8597256</v>
       </c>
       <c r="F107" t="n">
-        <v>8493892</v>
+        <v>8467798</v>
       </c>
     </row>
     <row r="108">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>265550</v>
+        <v>266396</v>
       </c>
       <c r="F108" t="n">
-        <v>268760</v>
+        <v>269113</v>
       </c>
     </row>
     <row r="109">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1800032</v>
+        <v>1799572</v>
       </c>
       <c r="F109" t="n">
-        <v>1778616</v>
+        <v>1791915</v>
       </c>
     </row>
     <row r="110">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1429450</v>
+        <v>1418855</v>
       </c>
       <c r="F110" t="n">
-        <v>1452818</v>
+        <v>1438926</v>
       </c>
     </row>
     <row r="111">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1703285</v>
+        <v>1751378</v>
       </c>
       <c r="F111" t="n">
-        <v>1634889</v>
+        <v>1715930</v>
       </c>
     </row>
     <row r="112">
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>654377</v>
+        <v>664005</v>
       </c>
       <c r="F112" t="n">
-        <v>660669</v>
+        <v>672360</v>
       </c>
     </row>
     <row r="113">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>368409</v>
+        <v>369879</v>
       </c>
       <c r="F113" t="n">
-        <v>365307</v>
+        <v>368484</v>
       </c>
     </row>
     <row r="114">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18564307</v>
+        <v>18666560</v>
       </c>
       <c r="F114" t="n">
-        <v>18415863</v>
+        <v>18617469</v>
       </c>
     </row>
     <row r="115">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>17625471</v>
+        <v>17513779</v>
       </c>
       <c r="F115" t="n">
-        <v>17390696</v>
+        <v>17390631</v>
       </c>
     </row>
     <row r="116">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6229438</v>
+        <v>6172205</v>
       </c>
       <c r="F116" t="n">
-        <v>6255347</v>
+        <v>6256715</v>
       </c>
     </row>
     <row r="117">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1299157</v>
+        <v>1301128</v>
       </c>
       <c r="F117" t="n">
-        <v>1303104</v>
+        <v>1313640</v>
       </c>
     </row>
     <row r="118">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1618466</v>
+        <v>1602297</v>
       </c>
       <c r="F118" t="n">
-        <v>1607188</v>
+        <v>1588350</v>
       </c>
     </row>
     <row r="119">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2142704</v>
+        <v>2126152</v>
       </c>
       <c r="F119" t="n">
-        <v>2129126</v>
+        <v>2125212</v>
       </c>
     </row>
     <row r="120">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>13436658</v>
+        <v>13407808</v>
       </c>
       <c r="F120" t="n">
-        <v>13507037</v>
+        <v>13505171</v>
       </c>
     </row>
     <row r="121">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3787248</v>
+        <v>3784771</v>
       </c>
       <c r="F121" t="n">
-        <v>3867987</v>
+        <v>3807794</v>
       </c>
     </row>
     <row r="122">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4496679</v>
+        <v>4483039</v>
       </c>
       <c r="F122" t="n">
-        <v>4525163</v>
+        <v>4540572</v>
       </c>
     </row>
     <row r="123">
@@ -3875,10 +3875,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19365443</v>
+        <v>19329054</v>
       </c>
       <c r="F123" t="n">
-        <v>19088228</v>
+        <v>19120895</v>
       </c>
     </row>
     <row r="124">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2804919</v>
+        <v>2779996</v>
       </c>
       <c r="F124" t="n">
-        <v>2827776</v>
+        <v>2836405</v>
       </c>
     </row>
     <row r="125">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4210981</v>
+        <v>4211721</v>
       </c>
       <c r="F125" t="n">
-        <v>4228576</v>
+        <v>4250925</v>
       </c>
     </row>
     <row r="126">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5711394</v>
+        <v>5727573</v>
       </c>
       <c r="F126" t="n">
-        <v>5705310</v>
+        <v>5722192</v>
       </c>
     </row>
     <row r="127">
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1876878</v>
+        <v>1871617</v>
       </c>
       <c r="F127" t="n">
-        <v>1885347</v>
+        <v>1887603</v>
       </c>
     </row>
     <row r="128">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1158645</v>
+        <v>1159204</v>
       </c>
       <c r="F128" t="n">
-        <v>1160764</v>
+        <v>1168096</v>
       </c>
     </row>
     <row r="129">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1966540</v>
+        <v>1964362</v>
       </c>
       <c r="F129" t="n">
-        <v>1952924</v>
+        <v>1971731</v>
       </c>
     </row>
     <row r="130">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>298080</v>
+        <v>294135</v>
       </c>
       <c r="F130" t="n">
-        <v>304451</v>
+        <v>294694</v>
       </c>
     </row>
     <row r="131">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4133982</v>
+        <v>4138888</v>
       </c>
       <c r="F131" t="n">
-        <v>4072445</v>
+        <v>4112179</v>
       </c>
     </row>
     <row r="132">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4187266</v>
+        <v>4180259</v>
       </c>
       <c r="F132" t="n">
-        <v>4189361</v>
+        <v>4184083</v>
       </c>
     </row>
     <row r="133">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3612962</v>
+        <v>3603189</v>
       </c>
       <c r="F133" t="n">
-        <v>3522381</v>
+        <v>3572249</v>
       </c>
     </row>
     <row r="134">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2300328</v>
+        <v>2321825</v>
       </c>
       <c r="F134" t="n">
-        <v>2283985</v>
+        <v>2313679</v>
       </c>
     </row>
     <row r="135">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1827271</v>
+        <v>1822399</v>
       </c>
       <c r="F135" t="n">
-        <v>1856330</v>
+        <v>1821455</v>
       </c>
     </row>
     <row r="136">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>7554076</v>
+        <v>7523195</v>
       </c>
       <c r="F136" t="n">
-        <v>7616324</v>
+        <v>7509873</v>
       </c>
     </row>
     <row r="137">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2882259</v>
+        <v>2846777</v>
       </c>
       <c r="F137" t="n">
-        <v>2790250</v>
+        <v>2801966</v>
       </c>
     </row>
     <row r="138">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>13020596</v>
+        <v>12977716</v>
       </c>
       <c r="F138" t="n">
-        <v>12972279</v>
+        <v>12983220</v>
       </c>
     </row>
     <row r="139">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>905222</v>
+        <v>901064</v>
       </c>
       <c r="F139" t="n">
-        <v>909584</v>
+        <v>907604</v>
       </c>
     </row>
     <row r="140">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8600321</v>
+        <v>8530241</v>
       </c>
       <c r="F140" t="n">
-        <v>8403557</v>
+        <v>8463202</v>
       </c>
     </row>
     <row r="141">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3122197</v>
+        <v>3121973</v>
       </c>
       <c r="F141" t="n">
-        <v>3142811</v>
+        <v>3156517</v>
       </c>
     </row>
     <row r="142">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1173358</v>
+        <v>1174720</v>
       </c>
       <c r="F142" t="n">
-        <v>1192104</v>
+        <v>1191490</v>
       </c>
     </row>
     <row r="143">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>833670</v>
+        <v>833957</v>
       </c>
       <c r="F143" t="n">
-        <v>820513</v>
+        <v>832325</v>
       </c>
     </row>
     <row r="144">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1607373</v>
+        <v>1600001</v>
       </c>
       <c r="F144" t="n">
-        <v>1585784</v>
+        <v>1596876</v>
       </c>
     </row>
     <row r="145">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10123359</v>
+        <v>10099803</v>
       </c>
       <c r="F145" t="n">
-        <v>10022044</v>
+        <v>10080202</v>
       </c>
     </row>
     <row r="146">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2240204</v>
+        <v>2227374</v>
       </c>
       <c r="F146" t="n">
-        <v>2177864</v>
+        <v>2201400</v>
       </c>
     </row>
     <row r="147">
@@ -4547,10 +4547,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8863669</v>
+        <v>8842236</v>
       </c>
       <c r="F147" t="n">
-        <v>8942280</v>
+        <v>8869362</v>
       </c>
     </row>
     <row r="148">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3237537</v>
+        <v>3237454</v>
       </c>
       <c r="F148" t="n">
-        <v>3286865</v>
+        <v>3286832</v>
       </c>
     </row>
     <row r="149">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2124510</v>
+        <v>2125946</v>
       </c>
       <c r="F149" t="n">
-        <v>2118626</v>
+        <v>2113738</v>
       </c>
     </row>
     <row r="150">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2392995</v>
+        <v>2392972</v>
       </c>
       <c r="F150" t="n">
-        <v>2388128</v>
+        <v>2410224</v>
       </c>
     </row>
     <row r="151">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2382748</v>
+        <v>2349807</v>
       </c>
       <c r="F151" t="n">
-        <v>2333856</v>
+        <v>2334917</v>
       </c>
     </row>
     <row r="152">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2956567</v>
+        <v>2934066</v>
       </c>
       <c r="F152" t="n">
-        <v>2897255</v>
+        <v>2932516</v>
       </c>
     </row>
     <row r="153">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2194406</v>
+        <v>2191734</v>
       </c>
       <c r="F153" t="n">
-        <v>2228366</v>
+        <v>2226150</v>
       </c>
     </row>
     <row r="154">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5039824</v>
+        <v>5012195</v>
       </c>
       <c r="F154" t="n">
-        <v>4961197</v>
+        <v>4934671</v>
       </c>
     </row>
     <row r="155">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>669942</v>
+        <v>666236</v>
       </c>
       <c r="F155" t="n">
-        <v>670409</v>
+        <v>670816</v>
       </c>
     </row>
     <row r="156">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>837564</v>
+        <v>830796</v>
       </c>
       <c r="F156" t="n">
-        <v>836871</v>
+        <v>830564</v>
       </c>
     </row>
     <row r="157">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4535127</v>
+        <v>4511959</v>
       </c>
       <c r="F157" t="n">
-        <v>4544599</v>
+        <v>4536219</v>
       </c>
     </row>
     <row r="158">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2858008</v>
+        <v>2874185</v>
       </c>
       <c r="F158" t="n">
-        <v>2841646</v>
+        <v>2868452</v>
       </c>
     </row>
     <row r="159">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1317698</v>
+        <v>1307075</v>
       </c>
       <c r="F159" t="n">
-        <v>1297904</v>
+        <v>1296356</v>
       </c>
     </row>
     <row r="160">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3091697</v>
+        <v>3119184</v>
       </c>
       <c r="F160" t="n">
-        <v>3059711</v>
+        <v>3113788</v>
       </c>
     </row>
     <row r="161">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2941907</v>
+        <v>2925593</v>
       </c>
       <c r="F161" t="n">
-        <v>2922990</v>
+        <v>2937764</v>
       </c>
     </row>
     <row r="162">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>933088</v>
+        <v>928308</v>
       </c>
       <c r="F162" t="n">
-        <v>927545</v>
+        <v>929820</v>
       </c>
     </row>
     <row r="163">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1960926</v>
+        <v>1958098</v>
       </c>
       <c r="F163" t="n">
-        <v>1980771</v>
+        <v>1987800</v>
       </c>
     </row>
     <row r="164">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5245734</v>
+        <v>5280291</v>
       </c>
       <c r="F164" t="n">
-        <v>5214642</v>
+        <v>5270590</v>
       </c>
     </row>
     <row r="165">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1082212</v>
+        <v>1077129</v>
       </c>
       <c r="F165" t="n">
-        <v>1079983</v>
+        <v>1074617</v>
       </c>
     </row>
     <row r="166">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1824593</v>
+        <v>1826956</v>
       </c>
       <c r="F166" t="n">
-        <v>1803775</v>
+        <v>1820352</v>
       </c>
     </row>
     <row r="167">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3622008</v>
+        <v>3607813</v>
       </c>
       <c r="F167" t="n">
-        <v>3556093</v>
+        <v>3539842</v>
       </c>
     </row>
     <row r="168">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>2146558</v>
+        <v>2138626</v>
       </c>
       <c r="F168" t="n">
-        <v>2147165</v>
+        <v>2144158</v>
       </c>
     </row>
     <row r="169">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1135972</v>
+        <v>1138506</v>
       </c>
       <c r="F169" t="n">
-        <v>1145835</v>
+        <v>1152125</v>
       </c>
     </row>
     <row r="170">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3001701</v>
+        <v>3029362</v>
       </c>
       <c r="F170" t="n">
-        <v>3026182</v>
+        <v>3057085</v>
       </c>
     </row>
     <row r="171">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3184450</v>
+        <v>3183291</v>
       </c>
       <c r="F171" t="n">
-        <v>3160092</v>
+        <v>3169766</v>
       </c>
     </row>
     <row r="172">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4150379</v>
+        <v>4166168</v>
       </c>
       <c r="F172" t="n">
-        <v>4114486</v>
+        <v>4160095</v>
       </c>
     </row>
     <row r="173">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1497497</v>
+        <v>1496458</v>
       </c>
       <c r="F173" t="n">
-        <v>1497560</v>
+        <v>1508213</v>
       </c>
     </row>
     <row r="174">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3337098</v>
+        <v>3337133</v>
       </c>
       <c r="F174" t="n">
-        <v>3336699</v>
+        <v>3340326</v>
       </c>
     </row>
     <row r="175">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>487179</v>
+        <v>486200</v>
       </c>
       <c r="F175" t="n">
-        <v>489663</v>
+        <v>493596</v>
       </c>
     </row>
     <row r="176">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>6005148</v>
+        <v>6003968</v>
       </c>
       <c r="F176" t="n">
-        <v>6029426</v>
+        <v>6034379</v>
       </c>
     </row>
     <row r="177">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>822656</v>
+        <v>819720</v>
       </c>
       <c r="F177" t="n">
-        <v>802353</v>
+        <v>810315</v>
       </c>
     </row>
     <row r="178">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>400276</v>
+        <v>400695</v>
       </c>
       <c r="F178" t="n">
-        <v>400454</v>
+        <v>401703</v>
       </c>
     </row>
     <row r="179">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2036659</v>
+        <v>2033257</v>
       </c>
       <c r="F179" t="n">
-        <v>1986279</v>
+        <v>1987890</v>
       </c>
     </row>
     <row r="180">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>450140</v>
+        <v>451322</v>
       </c>
       <c r="F180" t="n">
-        <v>442948</v>
+        <v>446996</v>
       </c>
     </row>
     <row r="181">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2268042</v>
+        <v>2234466</v>
       </c>
       <c r="F181" t="n">
-        <v>2211022</v>
+        <v>2204759</v>
       </c>
     </row>
     <row r="182">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3396489</v>
+        <v>3408405</v>
       </c>
       <c r="F182" t="n">
-        <v>3357699</v>
+        <v>3401621</v>
       </c>
     </row>
     <row r="183">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>332412</v>
+        <v>330183</v>
       </c>
       <c r="F183" t="n">
-        <v>329353</v>
+        <v>330268</v>
       </c>
     </row>
     <row r="184">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1820308</v>
+        <v>1764978</v>
       </c>
       <c r="F184" t="n">
-        <v>1659127</v>
+        <v>1656226</v>
       </c>
     </row>
     <row r="185">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2112348</v>
+        <v>2110750</v>
       </c>
       <c r="F185" t="n">
-        <v>2107740</v>
+        <v>2129313</v>
       </c>
     </row>
     <row r="186">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>6394453</v>
+        <v>6390096</v>
       </c>
       <c r="F186" t="n">
-        <v>6285107</v>
+        <v>6327513</v>
       </c>
     </row>
     <row r="187">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2509047</v>
+        <v>2510465</v>
       </c>
       <c r="F187" t="n">
-        <v>2534285</v>
+        <v>2527839</v>
       </c>
     </row>
     <row r="188">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1266080</v>
+        <v>1252667</v>
       </c>
       <c r="F188" t="n">
-        <v>1257544</v>
+        <v>1249848</v>
       </c>
     </row>
     <row r="189">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1409033</v>
+        <v>1404847</v>
       </c>
       <c r="F189" t="n">
-        <v>1421630</v>
+        <v>1426058</v>
       </c>
     </row>
     <row r="190">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17607687</v>
+        <v>17520018</v>
       </c>
       <c r="F190" t="n">
-        <v>17219811</v>
+        <v>17252779</v>
       </c>
     </row>
     <row r="191">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>529212</v>
+        <v>529460</v>
       </c>
       <c r="F191" t="n">
-        <v>530736</v>
+        <v>531357</v>
       </c>
     </row>
     <row r="192">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>258595</v>
+        <v>259662</v>
       </c>
       <c r="F192" t="n">
-        <v>259731</v>
+        <v>261485</v>
       </c>
     </row>
     <row r="193">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>205359</v>
+        <v>204691</v>
       </c>
       <c r="F193" t="n">
-        <v>206973</v>
+        <v>207212</v>
       </c>
     </row>
     <row r="194">
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3275127</v>
+        <v>3289482</v>
       </c>
       <c r="F194" t="n">
-        <v>3244137</v>
+        <v>3274514</v>
       </c>
     </row>
     <row r="195">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>572978</v>
+        <v>570639</v>
       </c>
       <c r="F195" t="n">
-        <v>566135</v>
+        <v>569063</v>
       </c>
     </row>
     <row r="196">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1981190</v>
+        <v>1987274</v>
       </c>
       <c r="F196" t="n">
-        <v>1977853</v>
+        <v>1974706</v>
       </c>
     </row>
     <row r="197">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5726446</v>
+        <v>5625806</v>
       </c>
       <c r="F197" t="n">
-        <v>5641267</v>
+        <v>5524620</v>
       </c>
     </row>
     <row r="198">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>6397906</v>
+        <v>6382308</v>
       </c>
       <c r="F198" t="n">
-        <v>6475493</v>
+        <v>6494900</v>
       </c>
     </row>
     <row r="199">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2414972</v>
+        <v>2436763</v>
       </c>
       <c r="F199" t="n">
-        <v>2363156</v>
+        <v>2401449</v>
       </c>
     </row>
     <row r="200">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>3612748</v>
+        <v>3599513</v>
       </c>
       <c r="F200" t="n">
-        <v>3604101</v>
+        <v>3615232</v>
       </c>
     </row>
     <row r="201">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>3077305</v>
+        <v>3092535</v>
       </c>
       <c r="F201" t="n">
-        <v>3097746</v>
+        <v>3124898</v>
       </c>
     </row>
     <row r="202">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>518805</v>
+        <v>511047</v>
       </c>
       <c r="F202" t="n">
-        <v>512063</v>
+        <v>506156</v>
       </c>
     </row>
     <row r="203">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1280912</v>
+        <v>1275336</v>
       </c>
       <c r="F203" t="n">
-        <v>1259047</v>
+        <v>1276478</v>
       </c>
     </row>
     <row r="204">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>57909081</v>
+        <v>57930252</v>
       </c>
       <c r="F204" t="n">
-        <v>57956421</v>
+        <v>58017011</v>
       </c>
     </row>
     <row r="205">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>5675700</v>
+        <v>5708463</v>
       </c>
       <c r="F205" t="n">
-        <v>5686381</v>
+        <v>5747058</v>
       </c>
     </row>
     <row r="206">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1926252</v>
+        <v>1922535</v>
       </c>
       <c r="F206" t="n">
-        <v>1953264</v>
+        <v>1950896</v>
       </c>
     </row>
     <row r="207">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3603860</v>
+        <v>3570767</v>
       </c>
       <c r="F207" t="n">
-        <v>3533300</v>
+        <v>3561918</v>
       </c>
     </row>
     <row r="208">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1274157</v>
+        <v>1267866</v>
       </c>
       <c r="F208" t="n">
-        <v>1227678</v>
+        <v>1239843</v>
       </c>
     </row>
     <row r="209">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3256334</v>
+        <v>3275153</v>
       </c>
       <c r="F209" t="n">
-        <v>3268935</v>
+        <v>3293411</v>
       </c>
     </row>
     <row r="210">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11772021</v>
+        <v>11672025</v>
       </c>
       <c r="F210" t="n">
-        <v>11611704</v>
+        <v>11605849</v>
       </c>
     </row>
     <row r="211">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>805165</v>
+        <v>800167</v>
       </c>
       <c r="F211" t="n">
-        <v>812390</v>
+        <v>808319</v>
       </c>
     </row>
     <row r="212">
@@ -6367,10 +6367,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>467537</v>
+        <v>468724</v>
       </c>
       <c r="F212" t="n">
-        <v>468372</v>
+        <v>471292</v>
       </c>
     </row>
     <row r="213">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2768827</v>
+        <v>2784776</v>
       </c>
       <c r="F213" t="n">
-        <v>2895965</v>
+        <v>2891047</v>
       </c>
     </row>
     <row r="214">
@@ -6423,10 +6423,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3921214</v>
+        <v>3912387</v>
       </c>
       <c r="F214" t="n">
-        <v>3976568</v>
+        <v>3984682</v>
       </c>
     </row>
     <row r="215">
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1368813</v>
+        <v>1375798</v>
       </c>
       <c r="F215" t="n">
-        <v>1374082</v>
+        <v>1373366</v>
       </c>
     </row>
     <row r="216">
@@ -6479,10 +6479,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1139155</v>
+        <v>1132286</v>
       </c>
       <c r="F216" t="n">
-        <v>1142264</v>
+        <v>1141536</v>
       </c>
     </row>
     <row r="217">
@@ -6507,10 +6507,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>5819995</v>
+        <v>5827871</v>
       </c>
       <c r="F217" t="n">
-        <v>5923175</v>
+        <v>5873597</v>
       </c>
     </row>
     <row r="218">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>3749469</v>
+        <v>3754116</v>
       </c>
       <c r="F218" t="n">
-        <v>3771799</v>
+        <v>3778965</v>
       </c>
     </row>
     <row r="219">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>15664319</v>
+        <v>15544301</v>
       </c>
       <c r="F219" t="n">
-        <v>14966944</v>
+        <v>15140756</v>
       </c>
     </row>
     <row r="220">
@@ -6591,10 +6591,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1012048</v>
+        <v>998733</v>
       </c>
       <c r="F220" t="n">
-        <v>998153</v>
+        <v>996576</v>
       </c>
     </row>
     <row r="221">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>6002479</v>
+        <v>6010025</v>
       </c>
       <c r="F221" t="n">
-        <v>5924130</v>
+        <v>5927399</v>
       </c>
     </row>
     <row r="222">
@@ -6647,10 +6647,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1948300</v>
+        <v>1940420</v>
       </c>
       <c r="F222" t="n">
-        <v>1951913</v>
+        <v>1943169</v>
       </c>
     </row>
     <row r="223">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>537130</v>
+        <v>537535</v>
       </c>
       <c r="F223" t="n">
-        <v>527657</v>
+        <v>532639</v>
       </c>
     </row>
     <row r="224">
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>2332364</v>
+        <v>2313780</v>
       </c>
       <c r="F224" t="n">
-        <v>2335128</v>
+        <v>2335568</v>
       </c>
     </row>
     <row r="225">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>8407369</v>
+        <v>8347769</v>
       </c>
       <c r="F225" t="n">
-        <v>8489565</v>
+        <v>8381058</v>
       </c>
     </row>
     <row r="226">
@@ -6759,10 +6759,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1680593</v>
+        <v>1672141</v>
       </c>
       <c r="F226" t="n">
-        <v>1692814</v>
+        <v>1693358</v>
       </c>
     </row>
     <row r="227">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1817001</v>
+        <v>1839405</v>
       </c>
       <c r="F227" t="n">
-        <v>1807065</v>
+        <v>1833974</v>
       </c>
     </row>
     <row r="228">
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1286905</v>
+        <v>1288119</v>
       </c>
       <c r="F228" t="n">
-        <v>1278287</v>
+        <v>1288899</v>
       </c>
     </row>
     <row r="229">
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4587195</v>
+        <v>4572100</v>
       </c>
       <c r="F229" t="n">
-        <v>4504655</v>
+        <v>4553091</v>
       </c>
     </row>
     <row r="230">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>943799</v>
+        <v>937858</v>
       </c>
       <c r="F230" t="n">
-        <v>915382</v>
+        <v>921811</v>
       </c>
     </row>
     <row r="231">
@@ -6899,10 +6899,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1170844</v>
+        <v>1166904</v>
       </c>
       <c r="F231" t="n">
-        <v>1175446</v>
+        <v>1178628</v>
       </c>
     </row>
     <row r="232">
@@ -6927,10 +6927,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2340593</v>
+        <v>2280895</v>
       </c>
       <c r="F232" t="n">
-        <v>2143615</v>
+        <v>2162845</v>
       </c>
     </row>
     <row r="233">
@@ -6955,10 +6955,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>12257061</v>
+        <v>12266216</v>
       </c>
       <c r="F233" t="n">
-        <v>12101817</v>
+        <v>12211174</v>
       </c>
     </row>
     <row r="234">
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1672051</v>
+        <v>1685765</v>
       </c>
       <c r="F234" t="n">
-        <v>1668848</v>
+        <v>1684479</v>
       </c>
     </row>
     <row r="235">
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1652580</v>
+        <v>1651989</v>
       </c>
       <c r="F235" t="n">
-        <v>1628926</v>
+        <v>1648141</v>
       </c>
     </row>
     <row r="236">
@@ -7039,10 +7039,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>3566714</v>
+        <v>3551611</v>
       </c>
       <c r="F236" t="n">
-        <v>3615734</v>
+        <v>3604488</v>
       </c>
     </row>
     <row r="237">
@@ -7067,10 +7067,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2781759</v>
+        <v>2787534</v>
       </c>
       <c r="F237" t="n">
-        <v>2754265</v>
+        <v>2777385</v>
       </c>
     </row>
     <row r="238">
@@ -7095,10 +7095,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2337434</v>
+        <v>2336676</v>
       </c>
       <c r="F238" t="n">
-        <v>2353275</v>
+        <v>2367417</v>
       </c>
     </row>
     <row r="239">
@@ -7123,10 +7123,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6803819</v>
+        <v>6856687</v>
       </c>
       <c r="F239" t="n">
-        <v>6815940</v>
+        <v>6893227</v>
       </c>
     </row>
     <row r="240">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2636947</v>
+        <v>2618783</v>
       </c>
       <c r="F240" t="n">
-        <v>2692438</v>
+        <v>2660293</v>
       </c>
     </row>
     <row r="241">
@@ -7179,10 +7179,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>7200513</v>
+        <v>7235590</v>
       </c>
       <c r="F241" t="n">
-        <v>7113169</v>
+        <v>7231313</v>
       </c>
     </row>
     <row r="242">
@@ -7207,10 +7207,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>476384</v>
+        <v>479085</v>
       </c>
       <c r="F242" t="n">
-        <v>484421</v>
+        <v>487419</v>
       </c>
     </row>
     <row r="243">
@@ -7235,10 +7235,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1182768</v>
+        <v>1184557</v>
       </c>
       <c r="F243" t="n">
-        <v>1156928</v>
+        <v>1172463</v>
       </c>
     </row>
     <row r="244">
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15696387</v>
+        <v>15604495</v>
       </c>
       <c r="F244" t="n">
-        <v>15661261</v>
+        <v>15664577</v>
       </c>
     </row>
     <row r="245">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>315547</v>
+        <v>319718</v>
       </c>
       <c r="F245" t="n">
-        <v>318231</v>
+        <v>323444</v>
       </c>
     </row>
     <row r="246">
@@ -7319,10 +7319,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4456452</v>
+        <v>4483332</v>
       </c>
       <c r="F246" t="n">
-        <v>4423895</v>
+        <v>4479713</v>
       </c>
     </row>
     <row r="247">
@@ -7347,10 +7347,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>464155</v>
+        <v>461693</v>
       </c>
       <c r="F247" t="n">
-        <v>467364</v>
+        <v>467719</v>
       </c>
     </row>
     <row r="248">
@@ -7375,10 +7375,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>474542</v>
+        <v>472427</v>
       </c>
       <c r="F248" t="n">
-        <v>461079</v>
+        <v>465544</v>
       </c>
     </row>
     <row r="249">
@@ -7403,10 +7403,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1053039</v>
+        <v>1050725</v>
       </c>
       <c r="F249" t="n">
-        <v>1062300</v>
+        <v>1062006</v>
       </c>
     </row>
     <row r="250">
@@ -7431,10 +7431,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1698504</v>
+        <v>1684201</v>
       </c>
       <c r="F250" t="n">
-        <v>1639070</v>
+        <v>1660361</v>
       </c>
     </row>
     <row r="251">
@@ -7459,10 +7459,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1700853</v>
+        <v>1751693</v>
       </c>
       <c r="F251" t="n">
-        <v>1715132</v>
+        <v>1769261</v>
       </c>
     </row>
     <row r="252">
@@ -7487,10 +7487,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>2410270</v>
+        <v>2398442</v>
       </c>
       <c r="F252" t="n">
-        <v>2426062</v>
+        <v>2418309</v>
       </c>
     </row>
     <row r="253">
@@ -7515,10 +7515,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>869407</v>
+        <v>867654</v>
       </c>
       <c r="F253" t="n">
-        <v>887778</v>
+        <v>897789</v>
       </c>
     </row>
     <row r="254">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>41315566</v>
+        <v>41425846</v>
       </c>
       <c r="F254" t="n">
-        <v>41432105</v>
+        <v>41769302</v>
       </c>
     </row>
     <row r="255">
@@ -7571,10 +7571,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2481219</v>
+        <v>2486323</v>
       </c>
       <c r="F255" t="n">
-        <v>2456270</v>
+        <v>2480054</v>
       </c>
     </row>
     <row r="256">
@@ -7599,10 +7599,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2042521</v>
+        <v>2046883</v>
       </c>
       <c r="F256" t="n">
-        <v>2076588</v>
+        <v>2076928</v>
       </c>
     </row>
     <row r="257">
@@ -7627,10 +7627,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3137365</v>
+        <v>3120642</v>
       </c>
       <c r="F257" t="n">
-        <v>3101221</v>
+        <v>3108136</v>
       </c>
     </row>
     <row r="258">
@@ -7655,10 +7655,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>4021038</v>
+        <v>4037245</v>
       </c>
       <c r="F258" t="n">
-        <v>4005149</v>
+        <v>4056821</v>
       </c>
     </row>
     <row r="259">
@@ -7683,10 +7683,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1531647</v>
+        <v>1537696</v>
       </c>
       <c r="F259" t="n">
-        <v>1551756</v>
+        <v>1560983</v>
       </c>
     </row>
     <row r="260">
@@ -7711,10 +7711,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1745719</v>
+        <v>1750214</v>
       </c>
       <c r="F260" t="n">
-        <v>1755494</v>
+        <v>1750518</v>
       </c>
     </row>
     <row r="261">
@@ -7739,10 +7739,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>4838242</v>
+        <v>4811579</v>
       </c>
       <c r="F261" t="n">
-        <v>4724902</v>
+        <v>4750777</v>
       </c>
     </row>
     <row r="262">
@@ -7767,10 +7767,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>3012927</v>
+        <v>2959502</v>
       </c>
       <c r="F262" t="n">
-        <v>2999794</v>
+        <v>2937680</v>
       </c>
     </row>
     <row r="263">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1075116</v>
+        <v>1069320</v>
       </c>
       <c r="F263" t="n">
-        <v>1073204</v>
+        <v>1074516</v>
       </c>
     </row>
     <row r="264">
@@ -7823,10 +7823,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1450353</v>
+        <v>1443755</v>
       </c>
       <c r="F264" t="n">
-        <v>1450361</v>
+        <v>1451223</v>
       </c>
     </row>
     <row r="265">
@@ -7851,10 +7851,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>732123</v>
+        <v>727454</v>
       </c>
       <c r="F265" t="n">
-        <v>735386</v>
+        <v>732962</v>
       </c>
     </row>
     <row r="266">
@@ -7879,10 +7879,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>583203</v>
+        <v>580627</v>
       </c>
       <c r="F266" t="n">
-        <v>584793</v>
+        <v>584199</v>
       </c>
     </row>
     <row r="267">
@@ -7907,10 +7907,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>665507</v>
+        <v>657603</v>
       </c>
       <c r="F267" t="n">
-        <v>649092</v>
+        <v>654126</v>
       </c>
     </row>
     <row r="268">
@@ -7935,10 +7935,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>10551219</v>
+        <v>10519924</v>
       </c>
       <c r="F268" t="n">
-        <v>10886468</v>
+        <v>10920370</v>
       </c>
     </row>
     <row r="269">
@@ -7963,10 +7963,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4028562</v>
+        <v>4143383</v>
       </c>
       <c r="F269" t="n">
-        <v>3950537</v>
+        <v>4113720</v>
       </c>
     </row>
     <row r="270">
@@ -7991,10 +7991,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10543762</v>
+        <v>10533139</v>
       </c>
       <c r="F270" t="n">
-        <v>10644150</v>
+        <v>10655127</v>
       </c>
     </row>
     <row r="271">
@@ -8019,10 +8019,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>3620361</v>
+        <v>3627791</v>
       </c>
       <c r="F271" t="n">
-        <v>3626754</v>
+        <v>3644639</v>
       </c>
     </row>
     <row r="272">
@@ -8047,10 +8047,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2461356</v>
+        <v>2460266</v>
       </c>
       <c r="F272" t="n">
-        <v>2502955</v>
+        <v>2499117</v>
       </c>
     </row>
     <row r="273">
@@ -8075,10 +8075,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25034527</v>
+        <v>24593294</v>
       </c>
       <c r="F273" t="n">
-        <v>25525316</v>
+        <v>25241009</v>
       </c>
     </row>
     <row r="274">
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8361633</v>
+        <v>8361374</v>
       </c>
       <c r="F274" t="n">
-        <v>8445501</v>
+        <v>8446441</v>
       </c>
     </row>
     <row r="275">
@@ -8131,10 +8131,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17949779</v>
+        <v>17792000</v>
       </c>
       <c r="F275" t="n">
-        <v>18007466</v>
+        <v>18052440</v>
       </c>
     </row>
     <row r="276">
@@ -8159,10 +8159,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1249884</v>
+        <v>1248033</v>
       </c>
       <c r="F276" t="n">
-        <v>1246859</v>
+        <v>1252672</v>
       </c>
     </row>
     <row r="277">
@@ -8187,10 +8187,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1714340</v>
+        <v>1695343</v>
       </c>
       <c r="F277" t="n">
-        <v>1710665</v>
+        <v>1693255</v>
       </c>
     </row>
     <row r="278">
@@ -8215,10 +8215,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4641504</v>
+        <v>4604324</v>
       </c>
       <c r="F278" t="n">
-        <v>4497155</v>
+        <v>4533239</v>
       </c>
     </row>
     <row r="279">
@@ -8243,10 +8243,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>13092597</v>
+        <v>13003347</v>
       </c>
       <c r="F279" t="n">
-        <v>13108367</v>
+        <v>12987722</v>
       </c>
     </row>
     <row r="280">
@@ -8271,10 +8271,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1048978</v>
+        <v>1051136</v>
       </c>
       <c r="F280" t="n">
-        <v>1056428</v>
+        <v>1050075</v>
       </c>
     </row>
     <row r="281">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7319841</v>
+        <v>7366909</v>
       </c>
       <c r="F281" t="n">
-        <v>7291293</v>
+        <v>7383404</v>
       </c>
     </row>
     <row r="282">
@@ -8327,10 +8327,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>4981883</v>
+        <v>4980100</v>
       </c>
       <c r="F282" t="n">
-        <v>5047888</v>
+        <v>5036847</v>
       </c>
     </row>
     <row r="283">
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1186885</v>
+        <v>1203068</v>
       </c>
       <c r="F283" t="n">
-        <v>1172285</v>
+        <v>1194051</v>
       </c>
     </row>
     <row r="284">
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>748658</v>
+        <v>747206</v>
       </c>
       <c r="F284" t="n">
-        <v>744581</v>
+        <v>747941</v>
       </c>
     </row>
     <row r="285">
@@ -8411,10 +8411,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1188481</v>
+        <v>1199062</v>
       </c>
       <c r="F285" t="n">
-        <v>1194493</v>
+        <v>1201815</v>
       </c>
     </row>
     <row r="286">
@@ -8439,10 +8439,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1568394</v>
+        <v>1564030</v>
       </c>
       <c r="F286" t="n">
-        <v>1587521</v>
+        <v>1586175</v>
       </c>
     </row>
     <row r="287">
@@ -8467,10 +8467,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>4812766</v>
+        <v>4805021</v>
       </c>
       <c r="F287" t="n">
-        <v>4727373</v>
+        <v>4760959</v>
       </c>
     </row>
     <row r="288">
@@ -8495,10 +8495,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>853965</v>
+        <v>852439</v>
       </c>
       <c r="F288" t="n">
-        <v>857440</v>
+        <v>861642</v>
       </c>
     </row>
     <row r="289">
@@ -8523,10 +8523,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>2152548</v>
+        <v>2152184</v>
       </c>
       <c r="F289" t="n">
-        <v>2162259</v>
+        <v>2158863</v>
       </c>
     </row>
     <row r="290">
@@ -8551,10 +8551,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1763487</v>
+        <v>1805145</v>
       </c>
       <c r="F290" t="n">
-        <v>1749197</v>
+        <v>1806117</v>
       </c>
     </row>
     <row r="291">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>1940064</v>
+        <v>1939370</v>
       </c>
       <c r="F291" t="n">
-        <v>1931524</v>
+        <v>1945333</v>
       </c>
     </row>
     <row r="292">
@@ -8607,10 +8607,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1423108</v>
+        <v>1422287</v>
       </c>
       <c r="F292" t="n">
-        <v>1417045</v>
+        <v>1422849</v>
       </c>
     </row>
     <row r="293">
@@ -8635,10 +8635,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1212313</v>
+        <v>1212996</v>
       </c>
       <c r="F293" t="n">
-        <v>1219116</v>
+        <v>1221770</v>
       </c>
     </row>
     <row r="294">
@@ -8663,10 +8663,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>820487</v>
+        <v>816698</v>
       </c>
       <c r="F294" t="n">
-        <v>815484</v>
+        <v>811699</v>
       </c>
     </row>
     <row r="295">
@@ -8691,10 +8691,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>2814313</v>
+        <v>2820154</v>
       </c>
       <c r="F295" t="n">
-        <v>2818580</v>
+        <v>2825600</v>
       </c>
     </row>
     <row r="296">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1873502</v>
+        <v>1805199</v>
       </c>
       <c r="F296" t="n">
-        <v>1911365</v>
+        <v>1770704</v>
       </c>
     </row>
     <row r="297">
@@ -8747,10 +8747,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1916298</v>
+        <v>1911415</v>
       </c>
       <c r="F297" t="n">
-        <v>1915280</v>
+        <v>1928662</v>
       </c>
     </row>
     <row r="298">
@@ -8775,10 +8775,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1336402</v>
+        <v>1322884</v>
       </c>
       <c r="F298" t="n">
-        <v>1348709</v>
+        <v>1334077</v>
       </c>
     </row>
     <row r="299">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10717106</v>
+        <v>10739520</v>
       </c>
       <c r="F299" t="n">
-        <v>10812370</v>
+        <v>10808616</v>
       </c>
     </row>
     <row r="300">
@@ -8831,10 +8831,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>3621230</v>
+        <v>3593940</v>
       </c>
       <c r="F300" t="n">
-        <v>3660969</v>
+        <v>3614518</v>
       </c>
     </row>
     <row r="301">
@@ -8859,10 +8859,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>384517</v>
+        <v>380743</v>
       </c>
       <c r="F301" t="n">
-        <v>378930</v>
+        <v>379305</v>
       </c>
     </row>
     <row r="302">
@@ -8887,10 +8887,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1784617</v>
+        <v>1799179</v>
       </c>
       <c r="F302" t="n">
-        <v>1790869</v>
+        <v>1806203</v>
       </c>
     </row>
     <row r="303">
@@ -8915,10 +8915,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>1587635</v>
+        <v>1577897</v>
       </c>
       <c r="F303" t="n">
-        <v>1580843</v>
+        <v>1576498</v>
       </c>
     </row>
     <row r="304">
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>374301</v>
+        <v>374727</v>
       </c>
       <c r="F304" t="n">
-        <v>375227</v>
+        <v>377377</v>
       </c>
     </row>
     <row r="305">
@@ -8971,10 +8971,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>1776816</v>
+        <v>1780482</v>
       </c>
       <c r="F305" t="n">
-        <v>1778036</v>
+        <v>1787135</v>
       </c>
     </row>
     <row r="306">
@@ -8999,10 +8999,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2609139</v>
+        <v>2600881</v>
       </c>
       <c r="F306" t="n">
-        <v>2624515</v>
+        <v>2622570</v>
       </c>
     </row>
     <row r="307">
@@ -9027,10 +9027,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>4933961</v>
+        <v>4927117</v>
       </c>
       <c r="F307" t="n">
-        <v>4854783</v>
+        <v>4872456</v>
       </c>
     </row>
     <row r="308">
@@ -9055,10 +9055,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1530553</v>
+        <v>1525921</v>
       </c>
       <c r="F308" t="n">
-        <v>1547349</v>
+        <v>1554536</v>
       </c>
     </row>
     <row r="309">
@@ -9083,10 +9083,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>2716009</v>
+        <v>2695549</v>
       </c>
       <c r="F309" t="n">
-        <v>2657537</v>
+        <v>2674385</v>
       </c>
     </row>
     <row r="310">
@@ -9111,10 +9111,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>884826</v>
+        <v>881194</v>
       </c>
       <c r="F310" t="n">
-        <v>888643</v>
+        <v>879896</v>
       </c>
     </row>
     <row r="311">
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>6111632</v>
+        <v>6118146</v>
       </c>
       <c r="F311" t="n">
-        <v>6112840</v>
+        <v>6106270</v>
       </c>
     </row>
     <row r="312">
@@ -9167,10 +9167,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>7810644</v>
+        <v>7739722</v>
       </c>
       <c r="F312" t="n">
-        <v>7725382</v>
+        <v>7677262</v>
       </c>
     </row>
     <row r="313">
@@ -9195,10 +9195,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24622039</v>
+        <v>24784047</v>
       </c>
       <c r="F313" t="n">
-        <v>24857364</v>
+        <v>24851885</v>
       </c>
     </row>
     <row r="314">
@@ -9223,10 +9223,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>4464139</v>
+        <v>4433086</v>
       </c>
       <c r="F314" t="n">
-        <v>4529288</v>
+        <v>4500436</v>
       </c>
     </row>
     <row r="315">
@@ -9251,10 +9251,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>129427</v>
+        <v>129119</v>
       </c>
       <c r="F315" t="n">
-        <v>130937</v>
+        <v>131379</v>
       </c>
     </row>
     <row r="316">
@@ -9279,10 +9279,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>4499826</v>
+        <v>4514441</v>
       </c>
       <c r="F316" t="n">
-        <v>4473450</v>
+        <v>4509238</v>
       </c>
     </row>
     <row r="317">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4722788</v>
+        <v>4739511</v>
       </c>
       <c r="F317" t="n">
-        <v>4725985</v>
+        <v>4761808</v>
       </c>
     </row>
     <row r="318">
@@ -9335,10 +9335,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14992864</v>
+        <v>15113544</v>
       </c>
       <c r="F318" t="n">
-        <v>15083913</v>
+        <v>15173602</v>
       </c>
     </row>
     <row r="319">
@@ -9363,10 +9363,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27909907</v>
+        <v>27956827</v>
       </c>
       <c r="F319" t="n">
-        <v>27743830</v>
+        <v>27898766</v>
       </c>
     </row>
     <row r="320">
@@ -9391,10 +9391,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>698950</v>
+        <v>703943</v>
       </c>
       <c r="F320" t="n">
-        <v>686703</v>
+        <v>699101</v>
       </c>
     </row>
     <row r="321">
@@ -9419,10 +9419,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>4077054</v>
+        <v>4151362</v>
       </c>
       <c r="F321" t="n">
-        <v>3990949</v>
+        <v>4054269</v>
       </c>
     </row>
     <row r="322">
@@ -9447,10 +9447,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>699754</v>
+        <v>691092</v>
       </c>
       <c r="F322" t="n">
-        <v>681122</v>
+        <v>682405</v>
       </c>
     </row>
     <row r="323">
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>457623</v>
+        <v>458114</v>
       </c>
       <c r="F323" t="n">
-        <v>465048</v>
+        <v>461748</v>
       </c>
     </row>
     <row r="324">
@@ -9503,10 +9503,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1767907</v>
+        <v>1767651</v>
       </c>
       <c r="F324" t="n">
-        <v>1790843</v>
+        <v>1799172</v>
       </c>
     </row>
     <row r="325">
@@ -9531,10 +9531,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>6183237</v>
+        <v>6197665</v>
       </c>
       <c r="F325" t="n">
-        <v>6198443</v>
+        <v>6232371</v>
       </c>
     </row>
     <row r="326">
@@ -9559,10 +9559,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>537586</v>
+        <v>539104</v>
       </c>
       <c r="F326" t="n">
-        <v>549584</v>
+        <v>545411</v>
       </c>
     </row>
     <row r="327">
@@ -9587,10 +9587,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>4606422</v>
+        <v>4591323</v>
       </c>
       <c r="F327" t="n">
-        <v>4561743</v>
+        <v>4601261</v>
       </c>
     </row>
     <row r="328">
@@ -9615,10 +9615,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>776722</v>
+        <v>770319</v>
       </c>
       <c r="F328" t="n">
-        <v>768098</v>
+        <v>770236</v>
       </c>
     </row>
     <row r="329">
@@ -9643,10 +9643,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7569256</v>
+        <v>7534935</v>
       </c>
       <c r="F329" t="n">
-        <v>7569554</v>
+        <v>7572568</v>
       </c>
     </row>
     <row r="330">
@@ -9671,10 +9671,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>3975368</v>
+        <v>3970296</v>
       </c>
       <c r="F330" t="n">
-        <v>3998119</v>
+        <v>4010383</v>
       </c>
     </row>
     <row r="331">
@@ -9699,10 +9699,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>702437</v>
+        <v>699008</v>
       </c>
       <c r="F331" t="n">
-        <v>708548</v>
+        <v>709764</v>
       </c>
     </row>
     <row r="332">
@@ -9727,10 +9727,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>430709</v>
+        <v>431978</v>
       </c>
       <c r="F332" t="n">
-        <v>430072</v>
+        <v>430766</v>
       </c>
     </row>
     <row r="333">
@@ -9755,10 +9755,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>2711527</v>
+        <v>2706071</v>
       </c>
       <c r="F333" t="n">
-        <v>2722324</v>
+        <v>2726098</v>
       </c>
     </row>
     <row r="334">
@@ -9783,10 +9783,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2012330</v>
+        <v>2003553</v>
       </c>
       <c r="F334" t="n">
-        <v>2025575</v>
+        <v>2005395</v>
       </c>
     </row>
     <row r="335">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>6616854</v>
+        <v>6579590</v>
       </c>
       <c r="F335" t="n">
-        <v>6810823</v>
+        <v>6625490</v>
       </c>
     </row>
     <row r="336">
@@ -9839,10 +9839,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>9553074</v>
+        <v>9485067</v>
       </c>
       <c r="F336" t="n">
-        <v>9404181</v>
+        <v>9432090</v>
       </c>
     </row>
     <row r="337">
@@ -9867,10 +9867,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>2605791</v>
+        <v>2605072</v>
       </c>
       <c r="F337" t="n">
-        <v>2618727</v>
+        <v>2627155</v>
       </c>
     </row>
     <row r="338">
@@ -9895,10 +9895,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>947801</v>
+        <v>952237</v>
       </c>
       <c r="F338" t="n">
-        <v>957538</v>
+        <v>963221</v>
       </c>
     </row>
     <row r="339">
@@ -9923,10 +9923,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>9795475</v>
+        <v>9768200</v>
       </c>
       <c r="F339" t="n">
-        <v>9658956</v>
+        <v>9767214</v>
       </c>
     </row>
     <row r="340">
@@ -9951,10 +9951,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>7565447</v>
+        <v>7607724</v>
       </c>
       <c r="F340" t="n">
-        <v>7504359</v>
+        <v>7541189</v>
       </c>
     </row>
     <row r="341">
@@ -9979,10 +9979,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>4444585</v>
+        <v>4381702</v>
       </c>
       <c r="F341" t="n">
-        <v>4396492</v>
+        <v>4371568</v>
       </c>
     </row>
     <row r="342">
@@ -10007,10 +10007,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>233317</v>
+        <v>235562</v>
       </c>
       <c r="F342" t="n">
-        <v>231451</v>
+        <v>235170</v>
       </c>
     </row>
     <row r="343">
@@ -10035,10 +10035,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1362436</v>
+        <v>1355463</v>
       </c>
       <c r="F343" t="n">
-        <v>1352433</v>
+        <v>1358327</v>
       </c>
     </row>
     <row r="344">
@@ -10063,10 +10063,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1302330</v>
+        <v>1290865</v>
       </c>
       <c r="F344" t="n">
-        <v>1288174</v>
+        <v>1292568</v>
       </c>
     </row>
     <row r="345">
@@ -10091,10 +10091,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>820426</v>
+        <v>816129</v>
       </c>
       <c r="F345" t="n">
-        <v>828004</v>
+        <v>824895</v>
       </c>
     </row>
     <row r="346">
@@ -10119,10 +10119,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>14519657</v>
+        <v>14363371</v>
       </c>
       <c r="F346" t="n">
-        <v>14178032</v>
+        <v>14171973</v>
       </c>
     </row>
     <row r="347">
@@ -10147,10 +10147,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4070079</v>
+        <v>4061859</v>
       </c>
       <c r="F347" t="n">
-        <v>4131304</v>
+        <v>4107732</v>
       </c>
     </row>
     <row r="348">
@@ -10175,10 +10175,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1581809</v>
+        <v>1581963</v>
       </c>
       <c r="F348" t="n">
-        <v>1569746</v>
+        <v>1575106</v>
       </c>
     </row>
     <row r="349">
@@ -10203,10 +10203,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46912678</v>
+        <v>46990791</v>
       </c>
       <c r="F349" t="n">
-        <v>47710087</v>
+        <v>47680192</v>
       </c>
     </row>
     <row r="350">
@@ -10231,10 +10231,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22175</v>
+        <v>22170</v>
       </c>
       <c r="F350" t="n">
-        <v>22204</v>
+        <v>22406</v>
       </c>
     </row>
     <row r="351">
@@ -10259,10 +10259,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>2126952</v>
+        <v>2132819</v>
       </c>
       <c r="F351" t="n">
-        <v>2127821</v>
+        <v>2138043</v>
       </c>
     </row>
     <row r="352">
@@ -10287,10 +10287,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>422741</v>
+        <v>421867</v>
       </c>
       <c r="F352" t="n">
-        <v>420161</v>
+        <v>421163</v>
       </c>
     </row>
     <row r="353">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10853096</v>
+        <v>11001791</v>
       </c>
       <c r="F353" t="n">
-        <v>10911619</v>
+        <v>11042069</v>
       </c>
     </row>
     <row r="354">
@@ -10343,10 +10343,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>786182</v>
+        <v>787612</v>
       </c>
       <c r="F354" t="n">
-        <v>775102</v>
+        <v>777244</v>
       </c>
     </row>
     <row r="355">
@@ -10371,10 +10371,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1628835</v>
+        <v>1638570</v>
       </c>
       <c r="F355" t="n">
-        <v>1639297</v>
+        <v>1649368</v>
       </c>
     </row>
     <row r="356">
@@ -10399,10 +10399,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>6486986</v>
+        <v>6542651</v>
       </c>
       <c r="F356" t="n">
-        <v>6507472</v>
+        <v>6587869</v>
       </c>
     </row>
     <row r="357">
@@ -10427,10 +10427,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>3361105</v>
+        <v>3358996</v>
       </c>
       <c r="F357" t="n">
-        <v>3320508</v>
+        <v>3352665</v>
       </c>
     </row>
     <row r="358">
@@ -10455,10 +10455,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>8621239</v>
+        <v>9179096</v>
       </c>
       <c r="F358" t="n">
-        <v>8681760</v>
+        <v>9250579</v>
       </c>
     </row>
     <row r="359">
@@ -10483,10 +10483,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1848933</v>
+        <v>1838835</v>
       </c>
       <c r="F359" t="n">
-        <v>1838725</v>
+        <v>1841756</v>
       </c>
     </row>
     <row r="360">
@@ -10511,10 +10511,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>2722867</v>
+        <v>2712019</v>
       </c>
       <c r="F360" t="n">
-        <v>2731687</v>
+        <v>2692712</v>
       </c>
     </row>
     <row r="361">
@@ -10539,10 +10539,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>658676</v>
+        <v>652305</v>
       </c>
       <c r="F361" t="n">
-        <v>652386</v>
+        <v>650290</v>
       </c>
     </row>
     <row r="362">
@@ -10567,10 +10567,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4481266</v>
+        <v>4494529</v>
       </c>
       <c r="F362" t="n">
-        <v>4527512</v>
+        <v>4562592</v>
       </c>
     </row>
     <row r="363">
@@ -10595,10 +10595,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>13284613</v>
+        <v>13302889</v>
       </c>
       <c r="F363" t="n">
-        <v>12879640</v>
+        <v>13071242</v>
       </c>
     </row>
     <row r="364">
@@ -10623,10 +10623,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>768515</v>
+        <v>769222</v>
       </c>
       <c r="F364" t="n">
-        <v>776728</v>
+        <v>779471</v>
       </c>
     </row>
     <row r="365">
@@ -10651,10 +10651,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1892383</v>
+        <v>1900214</v>
       </c>
       <c r="F365" t="n">
-        <v>1910863</v>
+        <v>1918277</v>
       </c>
     </row>
     <row r="366">
@@ -10679,10 +10679,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>655902</v>
+        <v>651558</v>
       </c>
       <c r="F366" t="n">
-        <v>637221</v>
+        <v>644410</v>
       </c>
     </row>
     <row r="367">
@@ -10707,10 +10707,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>15309020</v>
+        <v>15205922</v>
       </c>
       <c r="F367" t="n">
-        <v>15145195</v>
+        <v>15181385</v>
       </c>
     </row>
     <row r="368">
@@ -10735,10 +10735,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>1370077</v>
+        <v>1358884</v>
       </c>
       <c r="F368" t="n">
-        <v>1349494</v>
+        <v>1345704</v>
       </c>
     </row>
     <row r="369">
@@ -10763,10 +10763,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>4859278</v>
+        <v>4880002</v>
       </c>
       <c r="F369" t="n">
-        <v>4830197</v>
+        <v>4888682</v>
       </c>
     </row>
     <row r="370">
@@ -10791,10 +10791,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26852140</v>
+        <v>26713977</v>
       </c>
       <c r="F370" t="n">
-        <v>25576160</v>
+        <v>26047214</v>
       </c>
     </row>
     <row r="371">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16334921</v>
+        <v>16246940</v>
       </c>
       <c r="F371" t="n">
-        <v>16384213</v>
+        <v>16312964</v>
       </c>
     </row>
     <row r="372">
@@ -10847,10 +10847,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>4347300</v>
+        <v>4313780</v>
       </c>
       <c r="F372" t="n">
-        <v>4329868</v>
+        <v>4294402</v>
       </c>
     </row>
     <row r="373">
@@ -10875,10 +10875,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>3304572</v>
+        <v>3272931</v>
       </c>
       <c r="F373" t="n">
-        <v>3279463</v>
+        <v>3270567</v>
       </c>
     </row>
     <row r="374">
@@ -10903,10 +10903,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>847939</v>
+        <v>854530</v>
       </c>
       <c r="F374" t="n">
-        <v>848366</v>
+        <v>855054</v>
       </c>
     </row>
     <row r="375">
@@ -10931,10 +10931,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>2359635</v>
+        <v>2334525</v>
       </c>
       <c r="F375" t="n">
-        <v>2341363</v>
+        <v>2327025</v>
       </c>
     </row>
     <row r="376">
@@ -10959,10 +10959,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2774334</v>
+        <v>2761122</v>
       </c>
       <c r="F376" t="n">
-        <v>2788176</v>
+        <v>2792317</v>
       </c>
     </row>
     <row r="377">
@@ -10987,10 +10987,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>404103</v>
+        <v>402450</v>
       </c>
       <c r="F377" t="n">
-        <v>406087</v>
+        <v>402412</v>
       </c>
     </row>
     <row r="378">
@@ -11015,10 +11015,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1456877</v>
+        <v>1453633</v>
       </c>
       <c r="F378" t="n">
-        <v>1439724</v>
+        <v>1458043</v>
       </c>
     </row>
     <row r="379">
@@ -11043,10 +11043,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5375721</v>
+        <v>5383984</v>
       </c>
       <c r="F379" t="n">
-        <v>5379800</v>
+        <v>5422997</v>
       </c>
     </row>
     <row r="380">
@@ -11071,10 +11071,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1403533</v>
+        <v>1398562</v>
       </c>
       <c r="F380" t="n">
-        <v>1425050</v>
+        <v>1416244</v>
       </c>
     </row>
     <row r="381">
@@ -11099,10 +11099,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>6334345</v>
+        <v>6318529</v>
       </c>
       <c r="F381" t="n">
-        <v>6269730</v>
+        <v>6294117</v>
       </c>
     </row>
     <row r="382">
@@ -11127,10 +11127,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>2560142</v>
+        <v>2553027</v>
       </c>
       <c r="F382" t="n">
-        <v>2556168</v>
+        <v>2566238</v>
       </c>
     </row>
     <row r="383">
@@ -11155,10 +11155,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3111864</v>
+        <v>3131284</v>
       </c>
       <c r="F383" t="n">
-        <v>3049268</v>
+        <v>3097242</v>
       </c>
     </row>
     <row r="384">
@@ -11183,10 +11183,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1867461</v>
+        <v>1861329</v>
       </c>
       <c r="F384" t="n">
-        <v>1876357</v>
+        <v>1879701</v>
       </c>
     </row>
     <row r="385">
@@ -11211,10 +11211,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>2575415</v>
+        <v>2546176</v>
       </c>
       <c r="F385" t="n">
-        <v>2542243</v>
+        <v>2540881</v>
       </c>
     </row>
     <row r="386">
@@ -11239,10 +11239,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>745769</v>
+        <v>742309</v>
       </c>
       <c r="F386" t="n">
-        <v>746907</v>
+        <v>744199</v>
       </c>
     </row>
     <row r="387">
@@ -11267,10 +11267,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>950776</v>
+        <v>943930</v>
       </c>
       <c r="F387" t="n">
-        <v>942795</v>
+        <v>945946</v>
       </c>
     </row>
     <row r="388">
@@ -11295,10 +11295,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>2505399</v>
+        <v>2500518</v>
       </c>
       <c r="F388" t="n">
-        <v>2509223</v>
+        <v>2523060</v>
       </c>
     </row>
     <row r="389">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1263264</v>
+        <v>1264652</v>
       </c>
       <c r="F389" t="n">
-        <v>1254572</v>
+        <v>1260717</v>
       </c>
     </row>
     <row r="390">
@@ -11351,10 +11351,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>944319</v>
+        <v>945370</v>
       </c>
       <c r="F390" t="n">
-        <v>936180</v>
+        <v>943702</v>
       </c>
     </row>
     <row r="391">
@@ -11379,10 +11379,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>8039231</v>
+        <v>8072239</v>
       </c>
       <c r="F391" t="n">
-        <v>8068449</v>
+        <v>8129943</v>
       </c>
     </row>
     <row r="392">
@@ -11407,10 +11407,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>975484</v>
+        <v>978074</v>
       </c>
       <c r="F392" t="n">
-        <v>973827</v>
+        <v>977785</v>
       </c>
     </row>
     <row r="393">
@@ -11435,10 +11435,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>874789</v>
+        <v>872434</v>
       </c>
       <c r="F393" t="n">
-        <v>884707</v>
+        <v>882148</v>
       </c>
     </row>
     <row r="394">
@@ -11463,10 +11463,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1149764</v>
+        <v>1146990</v>
       </c>
       <c r="F394" t="n">
-        <v>1157204</v>
+        <v>1156294</v>
       </c>
     </row>
     <row r="395">
@@ -11491,10 +11491,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>6433929</v>
+        <v>6439948</v>
       </c>
       <c r="F395" t="n">
-        <v>6437924</v>
+        <v>6492747</v>
       </c>
     </row>
     <row r="396">
@@ -11519,10 +11519,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>4867132</v>
+        <v>4820141</v>
       </c>
       <c r="F396" t="n">
-        <v>4720613</v>
+        <v>4743820</v>
       </c>
     </row>
     <row r="397">
@@ -11547,10 +11547,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>969432</v>
+        <v>961805</v>
       </c>
       <c r="F397" t="n">
-        <v>962320</v>
+        <v>959251</v>
       </c>
     </row>
     <row r="398">
@@ -11575,10 +11575,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>559820</v>
+        <v>558800</v>
       </c>
       <c r="F398" t="n">
-        <v>559428</v>
+        <v>558967</v>
       </c>
     </row>
     <row r="399">
@@ -11603,10 +11603,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>9317864</v>
+        <v>9252799</v>
       </c>
       <c r="F399" t="n">
-        <v>9319353</v>
+        <v>9353191</v>
       </c>
     </row>
     <row r="400">
@@ -11631,10 +11631,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1211627</v>
+        <v>1207025</v>
       </c>
       <c r="F400" t="n">
-        <v>1209279</v>
+        <v>1212459</v>
       </c>
     </row>
     <row r="401">
@@ -11659,10 +11659,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>945768</v>
+        <v>942270</v>
       </c>
       <c r="F401" t="n">
-        <v>953323</v>
+        <v>959855</v>
       </c>
     </row>
     <row r="402">
@@ -11687,10 +11687,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>784166</v>
+        <v>785896</v>
       </c>
       <c r="F402" t="n">
-        <v>788762</v>
+        <v>794220</v>
       </c>
     </row>
     <row r="403">
@@ -11715,10 +11715,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>907990</v>
+        <v>906374</v>
       </c>
       <c r="F403" t="n">
-        <v>918489</v>
+        <v>919844</v>
       </c>
     </row>
     <row r="404">
@@ -11743,10 +11743,10 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>768038</v>
+        <v>766045</v>
       </c>
       <c r="F404" t="n">
-        <v>766674</v>
+        <v>769467</v>
       </c>
     </row>
     <row r="405">
@@ -11771,10 +11771,10 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1866571</v>
+        <v>1864197</v>
       </c>
       <c r="F405" t="n">
-        <v>1898390</v>
+        <v>1894646</v>
       </c>
     </row>
     <row r="406">
@@ -11799,10 +11799,10 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>465877</v>
+        <v>470241</v>
       </c>
       <c r="F406" t="n">
-        <v>468221</v>
+        <v>475645</v>
       </c>
     </row>
     <row r="407">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2258833</v>
+        <v>2262719</v>
       </c>
       <c r="F407" t="n">
-        <v>2283469</v>
+        <v>2287047</v>
       </c>
     </row>
     <row r="408">
@@ -11855,10 +11855,10 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3427097</v>
+        <v>3415350</v>
       </c>
       <c r="F408" t="n">
-        <v>3415739</v>
+        <v>3417361</v>
       </c>
     </row>
     <row r="409">
@@ -11883,10 +11883,10 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1286728</v>
+        <v>1274830</v>
       </c>
       <c r="F409" t="n">
-        <v>1264374</v>
+        <v>1258215</v>
       </c>
     </row>
     <row r="410">
@@ -11911,10 +11911,10 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6824497</v>
+        <v>6743538</v>
       </c>
       <c r="F410" t="n">
-        <v>6776938</v>
+        <v>6675288</v>
       </c>
     </row>
     <row r="411">
@@ -11939,10 +11939,10 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>820216</v>
+        <v>818523</v>
       </c>
       <c r="F411" t="n">
-        <v>821081</v>
+        <v>825960</v>
       </c>
     </row>
     <row r="412">
@@ -11967,10 +11967,10 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>9363011</v>
+        <v>9277624</v>
       </c>
       <c r="F412" t="n">
-        <v>9394379</v>
+        <v>9251363</v>
       </c>
     </row>
     <row r="413">
@@ -11995,10 +11995,10 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2475634</v>
+        <v>2477762</v>
       </c>
       <c r="F413" t="n">
-        <v>2492789</v>
+        <v>2491700</v>
       </c>
     </row>
     <row r="414">
@@ -12023,10 +12023,10 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1582189</v>
+        <v>1566018</v>
       </c>
       <c r="F414" t="n">
-        <v>1549963</v>
+        <v>1558814</v>
       </c>
     </row>
     <row r="415">
@@ -12051,10 +12051,10 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2644715</v>
+        <v>2663155</v>
       </c>
       <c r="F415" t="n">
-        <v>2616205</v>
+        <v>2661735</v>
       </c>
     </row>
     <row r="416">
@@ -12079,10 +12079,10 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1364620</v>
+        <v>1362770</v>
       </c>
       <c r="F416" t="n">
-        <v>1370214</v>
+        <v>1372123</v>
       </c>
     </row>
     <row r="417">
@@ -12107,10 +12107,10 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1466732</v>
+        <v>1455706</v>
       </c>
       <c r="F417" t="n">
-        <v>1436473</v>
+        <v>1444809</v>
       </c>
     </row>
     <row r="418">
@@ -12135,10 +12135,10 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1529195</v>
+        <v>1520312</v>
       </c>
       <c r="F418" t="n">
-        <v>1512869</v>
+        <v>1517347</v>
       </c>
     </row>
     <row r="419">
@@ -12163,10 +12163,10 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1817912</v>
+        <v>1829031</v>
       </c>
       <c r="F419" t="n">
-        <v>1812158</v>
+        <v>1819169</v>
       </c>
     </row>
     <row r="420">
@@ -12191,10 +12191,10 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>1117602</v>
+        <v>1107580</v>
       </c>
       <c r="F420" t="n">
-        <v>1048779</v>
+        <v>1068074</v>
       </c>
     </row>
     <row r="421">
@@ -12219,10 +12219,10 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>271045</v>
+        <v>271378</v>
       </c>
       <c r="F421" t="n">
-        <v>270521</v>
+        <v>271040</v>
       </c>
     </row>
     <row r="422">
@@ -12247,10 +12247,10 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1683629</v>
+        <v>1687962</v>
       </c>
       <c r="F422" t="n">
-        <v>1637924</v>
+        <v>1676546</v>
       </c>
     </row>
     <row r="423">
@@ -12275,10 +12275,10 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>4216076</v>
+        <v>4221954</v>
       </c>
       <c r="F423" t="n">
-        <v>4202024</v>
+        <v>4218891</v>
       </c>
     </row>
     <row r="424">
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>7517890</v>
+        <v>7529199</v>
       </c>
       <c r="F424" t="n">
-        <v>7301703</v>
+        <v>7388983</v>
       </c>
     </row>
     <row r="425">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>1593591</v>
+        <v>1586830</v>
       </c>
       <c r="F425" t="n">
-        <v>1609556</v>
+        <v>1595356</v>
       </c>
     </row>
     <row r="426">
@@ -12359,10 +12359,10 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6734980</v>
+        <v>6639400</v>
       </c>
       <c r="F426" t="n">
-        <v>6504458</v>
+        <v>6492738</v>
       </c>
     </row>
     <row r="427">
@@ -12387,10 +12387,10 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2617591</v>
+        <v>2594811</v>
       </c>
       <c r="F427" t="n">
-        <v>2592693</v>
+        <v>2573958</v>
       </c>
     </row>
     <row r="428">
@@ -12415,10 +12415,10 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1757737</v>
+        <v>1794294</v>
       </c>
       <c r="F428" t="n">
-        <v>1711952</v>
+        <v>1715887</v>
       </c>
     </row>
     <row r="429">
@@ -12443,10 +12443,10 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>455672</v>
+        <v>450963</v>
       </c>
       <c r="F429" t="n">
-        <v>454839</v>
+        <v>446496</v>
       </c>
     </row>
     <row r="430">
@@ -12471,10 +12471,10 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1358050</v>
+        <v>1349986</v>
       </c>
       <c r="F430" t="n">
-        <v>1357152</v>
+        <v>1352827</v>
       </c>
     </row>
     <row r="431">
@@ -12499,10 +12499,10 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4979123</v>
+        <v>4971344</v>
       </c>
       <c r="F431" t="n">
-        <v>4984708</v>
+        <v>4999017</v>
       </c>
     </row>
     <row r="432">
@@ -12527,10 +12527,10 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>844648</v>
+        <v>845639</v>
       </c>
       <c r="F432" t="n">
-        <v>852559</v>
+        <v>854724</v>
       </c>
     </row>
     <row r="433">
@@ -12555,10 +12555,10 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>2506680</v>
+        <v>2497687</v>
       </c>
       <c r="F433" t="n">
-        <v>2478396</v>
+        <v>2486913</v>
       </c>
     </row>
     <row r="434">
@@ -12583,10 +12583,10 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5238099</v>
+        <v>5243294</v>
       </c>
       <c r="F434" t="n">
-        <v>5327466</v>
+        <v>5307031</v>
       </c>
     </row>
     <row r="435">
@@ -12611,10 +12611,10 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1528195</v>
+        <v>1545748</v>
       </c>
       <c r="F435" t="n">
-        <v>1517483</v>
+        <v>1537694</v>
       </c>
     </row>
     <row r="436">
@@ -12639,10 +12639,10 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1687130</v>
+        <v>1689509</v>
       </c>
       <c r="F436" t="n">
-        <v>1632725</v>
+        <v>1647710</v>
       </c>
     </row>
     <row r="437">
@@ -12667,10 +12667,10 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>3450005</v>
+        <v>3437261</v>
       </c>
       <c r="F437" t="n">
-        <v>3444196</v>
+        <v>3449355</v>
       </c>
     </row>
     <row r="438">
@@ -12695,10 +12695,10 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>1594272</v>
+        <v>1588539</v>
       </c>
       <c r="F438" t="n">
-        <v>1602367</v>
+        <v>1599244</v>
       </c>
     </row>
     <row r="439">
@@ -12723,10 +12723,10 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>4469930</v>
+        <v>4450316</v>
       </c>
       <c r="F439" t="n">
-        <v>4507032</v>
+        <v>4516594</v>
       </c>
     </row>
     <row r="440">
@@ -12751,10 +12751,10 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1542352</v>
+        <v>1536457</v>
       </c>
       <c r="F440" t="n">
-        <v>1542778</v>
+        <v>1541522</v>
       </c>
     </row>
     <row r="441">
@@ -12779,10 +12779,10 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>232007</v>
+        <v>234410</v>
       </c>
       <c r="F441" t="n">
-        <v>233530</v>
+        <v>237432</v>
       </c>
     </row>
     <row r="442">
@@ -12807,10 +12807,10 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>307840</v>
+        <v>304089</v>
       </c>
       <c r="F442" t="n">
-        <v>316577</v>
+        <v>306422</v>
       </c>
     </row>
     <row r="443">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1597206</v>
+        <v>1599359</v>
       </c>
       <c r="F443" t="n">
-        <v>1612986</v>
+        <v>1607313</v>
       </c>
     </row>
     <row r="444">
@@ -12863,10 +12863,10 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>139980376</v>
+        <v>140227394</v>
       </c>
       <c r="F444" t="n">
-        <v>140113090</v>
+        <v>140078583</v>
       </c>
     </row>
     <row r="445">
@@ -12891,10 +12891,10 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>5115849</v>
+        <v>5130511</v>
       </c>
       <c r="F445" t="n">
-        <v>5081304</v>
+        <v>5124769</v>
       </c>
     </row>
     <row r="446">
@@ -12919,10 +12919,10 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1330464</v>
+        <v>1318888</v>
       </c>
       <c r="F446" t="n">
-        <v>1333199</v>
+        <v>1317061</v>
       </c>
     </row>
     <row r="447">
@@ -12947,10 +12947,10 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1547245</v>
+        <v>1547777</v>
       </c>
       <c r="F447" t="n">
-        <v>1548109</v>
+        <v>1557899</v>
       </c>
     </row>
     <row r="448">
@@ -12975,10 +12975,10 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>5019311</v>
+        <v>4986776</v>
       </c>
       <c r="F448" t="n">
-        <v>5060516</v>
+        <v>5017376</v>
       </c>
     </row>
     <row r="449">
@@ -13003,10 +13003,10 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1158771</v>
+        <v>1156910</v>
       </c>
       <c r="F449" t="n">
-        <v>1156098</v>
+        <v>1161130</v>
       </c>
     </row>
     <row r="450">
@@ -13031,10 +13031,10 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1303557</v>
+        <v>1299436</v>
       </c>
       <c r="F450" t="n">
-        <v>1307050</v>
+        <v>1309683</v>
       </c>
     </row>
     <row r="451">
@@ -13059,10 +13059,10 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>263250</v>
+        <v>263796</v>
       </c>
       <c r="F451" t="n">
-        <v>266766</v>
+        <v>266884</v>
       </c>
     </row>
     <row r="452">
@@ -13087,10 +13087,10 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1327741</v>
+        <v>1316736</v>
       </c>
       <c r="F452" t="n">
-        <v>1317119</v>
+        <v>1317967</v>
       </c>
     </row>
     <row r="453">
@@ -13115,10 +13115,10 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1295363</v>
+        <v>1313198</v>
       </c>
       <c r="F453" t="n">
-        <v>1303180</v>
+        <v>1314427</v>
       </c>
     </row>
     <row r="454">
@@ -13143,10 +13143,10 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11118752</v>
+        <v>11011530</v>
       </c>
       <c r="F454" t="n">
-        <v>11220228</v>
+        <v>11166792</v>
       </c>
     </row>
     <row r="455">
@@ -13171,10 +13171,10 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>240728</v>
+        <v>240143</v>
       </c>
       <c r="F455" t="n">
-        <v>243061</v>
+        <v>241083</v>
       </c>
     </row>
     <row r="456">
@@ -13199,10 +13199,10 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>3098493</v>
+        <v>3088890</v>
       </c>
       <c r="F456" t="n">
-        <v>3091784</v>
+        <v>3099332</v>
       </c>
     </row>
     <row r="457">
@@ -13227,10 +13227,10 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12881011</v>
+        <v>12882831</v>
       </c>
       <c r="F457" t="n">
-        <v>13090559</v>
+        <v>13102724</v>
       </c>
     </row>
     <row r="458">
@@ -13255,10 +13255,10 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2452979</v>
+        <v>2447807</v>
       </c>
       <c r="F458" t="n">
-        <v>2382468</v>
+        <v>2414728</v>
       </c>
     </row>
     <row r="459">
@@ -13283,10 +13283,10 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>792344</v>
+        <v>781088</v>
       </c>
       <c r="F459" t="n">
-        <v>768789</v>
+        <v>772961</v>
       </c>
     </row>
     <row r="460">
@@ -13311,10 +13311,10 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>2794495</v>
+        <v>2774049</v>
       </c>
       <c r="F460" t="n">
-        <v>2785024</v>
+        <v>2775115</v>
       </c>
     </row>
     <row r="461">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7578788</v>
+        <v>7567579</v>
       </c>
       <c r="F461" t="n">
-        <v>7442755</v>
+        <v>7495726</v>
       </c>
     </row>
     <row r="462">
@@ -13367,10 +13367,10 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>3334178</v>
+        <v>3328845</v>
       </c>
       <c r="F462" t="n">
-        <v>3359732</v>
+        <v>3355398</v>
       </c>
     </row>
     <row r="463">
@@ -13395,10 +13395,10 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>801259</v>
+        <v>798829</v>
       </c>
       <c r="F463" t="n">
-        <v>803395</v>
+        <v>806807</v>
       </c>
     </row>
     <row r="464">
@@ -13423,10 +13423,10 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3198911</v>
+        <v>3197038</v>
       </c>
       <c r="F464" t="n">
-        <v>3226063</v>
+        <v>3227795</v>
       </c>
     </row>
     <row r="465">
@@ -13451,10 +13451,10 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>620561</v>
+        <v>624989</v>
       </c>
       <c r="F465" t="n">
-        <v>627135</v>
+        <v>629508</v>
       </c>
     </row>
     <row r="466">
@@ -13479,10 +13479,10 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>3860083</v>
+        <v>3847981</v>
       </c>
       <c r="F466" t="n">
-        <v>3940050</v>
+        <v>3903325</v>
       </c>
     </row>
     <row r="467">
@@ -13507,10 +13507,10 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>2176175</v>
+        <v>2165191</v>
       </c>
       <c r="F467" t="n">
-        <v>2197084</v>
+        <v>2192685</v>
       </c>
     </row>
     <row r="468">
@@ -13535,10 +13535,10 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>3012002</v>
+        <v>3009550</v>
       </c>
       <c r="F468" t="n">
-        <v>3672222</v>
+        <v>3479725</v>
       </c>
     </row>
     <row r="469">
@@ -13563,10 +13563,10 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>548214</v>
+        <v>550910</v>
       </c>
       <c r="F469" t="n">
-        <v>536121</v>
+        <v>541394</v>
       </c>
     </row>
     <row r="470">
@@ -13591,10 +13591,10 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>977834</v>
+        <v>974546</v>
       </c>
       <c r="F470" t="n">
-        <v>986431</v>
+        <v>984807</v>
       </c>
     </row>
     <row r="471">
@@ -13619,10 +13619,10 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22327447</v>
+        <v>22371028</v>
       </c>
       <c r="F471" t="n">
-        <v>22303815</v>
+        <v>22322077</v>
       </c>
     </row>
     <row r="472">
@@ -13647,10 +13647,10 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>1206501</v>
+        <v>1205042</v>
       </c>
       <c r="F472" t="n">
-        <v>1203104</v>
+        <v>1205541</v>
       </c>
     </row>
     <row r="473">
@@ -13675,10 +13675,10 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7669578</v>
+        <v>7633482</v>
       </c>
       <c r="F473" t="n">
-        <v>7638653</v>
+        <v>7613466</v>
       </c>
     </row>
     <row r="474">
@@ -13703,10 +13703,10 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>9016974</v>
+        <v>8997882</v>
       </c>
       <c r="F474" t="n">
-        <v>9009439</v>
+        <v>9054053</v>
       </c>
     </row>
     <row r="475">
@@ -13731,10 +13731,10 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>5669773</v>
+        <v>5614621</v>
       </c>
       <c r="F475" t="n">
-        <v>5651350</v>
+        <v>5589064</v>
       </c>
     </row>
     <row r="476">
@@ -13759,10 +13759,10 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>5874178</v>
+        <v>5894356</v>
       </c>
       <c r="F476" t="n">
-        <v>5956942</v>
+        <v>5972422</v>
       </c>
     </row>
     <row r="477">
@@ -13787,10 +13787,10 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>782740</v>
+        <v>780849</v>
       </c>
       <c r="F477" t="n">
-        <v>792408</v>
+        <v>788784</v>
       </c>
     </row>
     <row r="478">
@@ -13815,10 +13815,10 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1385282</v>
+        <v>1380018</v>
       </c>
       <c r="F478" t="n">
-        <v>1380628</v>
+        <v>1381129</v>
       </c>
     </row>
     <row r="479">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>910678</v>
+        <v>905571</v>
       </c>
       <c r="F479" t="n">
-        <v>909484</v>
+        <v>908764</v>
       </c>
     </row>
     <row r="480">
@@ -13871,10 +13871,10 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>9357417</v>
+        <v>9404958</v>
       </c>
       <c r="F480" t="n">
-        <v>9103781</v>
+        <v>9303033</v>
       </c>
     </row>
     <row r="481">
@@ -13899,10 +13899,10 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>6306096</v>
+        <v>6260331</v>
       </c>
       <c r="F481" t="n">
-        <v>6205424</v>
+        <v>6196220</v>
       </c>
     </row>
     <row r="482">
@@ -13927,10 +13927,10 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>13221411</v>
+        <v>13238461</v>
       </c>
       <c r="F482" t="n">
-        <v>13199648</v>
+        <v>13215955</v>
       </c>
     </row>
     <row r="483">
@@ -13955,10 +13955,10 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22360588</v>
+        <v>22306055</v>
       </c>
       <c r="F483" t="n">
-        <v>22004844</v>
+        <v>21878732</v>
       </c>
     </row>
     <row r="484">
@@ -13983,10 +13983,10 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1574358</v>
+        <v>1568398</v>
       </c>
       <c r="F484" t="n">
-        <v>1569732</v>
+        <v>1564896</v>
       </c>
     </row>
     <row r="485">
@@ -14011,10 +14011,10 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>473605</v>
+        <v>471956</v>
       </c>
       <c r="F485" t="n">
-        <v>477707</v>
+        <v>479478</v>
       </c>
     </row>
     <row r="486">
@@ -14039,10 +14039,10 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1481522</v>
+        <v>1495717</v>
       </c>
       <c r="F486" t="n">
-        <v>1472604</v>
+        <v>1494316</v>
       </c>
     </row>
     <row r="487">
@@ -14067,10 +14067,10 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>18941006</v>
+        <v>18964530</v>
       </c>
       <c r="F487" t="n">
-        <v>18936197</v>
+        <v>19000775</v>
       </c>
     </row>
     <row r="488">
@@ -14095,10 +14095,10 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>2499679</v>
+        <v>2474763</v>
       </c>
       <c r="F488" t="n">
-        <v>2468964</v>
+        <v>2457380</v>
       </c>
     </row>
     <row r="489">
@@ -14123,10 +14123,10 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>446361</v>
+        <v>447592</v>
       </c>
       <c r="F489" t="n">
-        <v>450187</v>
+        <v>447333</v>
       </c>
     </row>
     <row r="490">
@@ -14151,10 +14151,10 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>4412043</v>
+        <v>4411405</v>
       </c>
       <c r="F490" t="n">
-        <v>4322075</v>
+        <v>4336309</v>
       </c>
     </row>
     <row r="491">
@@ -14179,10 +14179,10 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>2573602</v>
+        <v>2565436</v>
       </c>
       <c r="F491" t="n">
-        <v>2542771</v>
+        <v>2571523</v>
       </c>
     </row>
     <row r="492">
@@ -14207,10 +14207,10 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>3814571</v>
+        <v>3810382</v>
       </c>
       <c r="F492" t="n">
-        <v>3831093</v>
+        <v>3851291</v>
       </c>
     </row>
     <row r="493">
@@ -14235,10 +14235,10 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>782852</v>
+        <v>779280</v>
       </c>
       <c r="F493" t="n">
-        <v>762791</v>
+        <v>770060</v>
       </c>
     </row>
     <row r="494">
@@ -14263,10 +14263,10 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>6657014</v>
+        <v>6679709</v>
       </c>
       <c r="F494" t="n">
-        <v>6659622</v>
+        <v>6707293</v>
       </c>
     </row>
     <row r="495">
@@ -14291,10 +14291,10 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>569296</v>
+        <v>569788</v>
       </c>
       <c r="F495" t="n">
-        <v>575101</v>
+        <v>577702</v>
       </c>
     </row>
     <row r="496">
@@ -14319,10 +14319,10 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>274952</v>
+        <v>275151</v>
       </c>
       <c r="F496" t="n">
-        <v>274802</v>
+        <v>275968</v>
       </c>
     </row>
     <row r="497">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>2303013</v>
+        <v>2295198</v>
       </c>
       <c r="F497" t="n">
-        <v>2314704</v>
+        <v>2306447</v>
       </c>
     </row>
     <row r="498">
@@ -14375,10 +14375,10 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>3444623</v>
+        <v>3442902</v>
       </c>
       <c r="F498" t="n">
-        <v>3470820</v>
+        <v>3477584</v>
       </c>
     </row>
     <row r="499">
@@ -14403,10 +14403,10 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1615701</v>
+        <v>1611018</v>
       </c>
       <c r="F499" t="n">
-        <v>1648492</v>
+        <v>1649757</v>
       </c>
     </row>
     <row r="500">
@@ -14431,10 +14431,10 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1599489</v>
+        <v>1590252</v>
       </c>
       <c r="F500" t="n">
-        <v>1594282</v>
+        <v>1587640</v>
       </c>
     </row>
     <row r="501">
@@ -14459,10 +14459,10 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>394655</v>
+        <v>393323</v>
       </c>
       <c r="F501" t="n">
-        <v>403305</v>
+        <v>398738</v>
       </c>
     </row>
     <row r="502">
@@ -14487,10 +14487,10 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1495374</v>
+        <v>1502158</v>
       </c>
       <c r="F502" t="n">
-        <v>1511213</v>
+        <v>1520555</v>
       </c>
     </row>
     <row r="503">
@@ -14515,10 +14515,10 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>3659809</v>
+        <v>3637984</v>
       </c>
       <c r="F503" t="n">
-        <v>3750224</v>
+        <v>3761392</v>
       </c>
     </row>
     <row r="504">
@@ -14543,10 +14543,10 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1925033</v>
+        <v>1937141</v>
       </c>
       <c r="F504" t="n">
-        <v>1972249</v>
+        <v>1959886</v>
       </c>
     </row>
   </sheetData>
